--- a/assets/reservation_template.xlsx
+++ b/assets/reservation_template.xlsx
@@ -4235,14 +4235,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4291,24 +4283,6 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4354,6 +4328,32 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4378,9 +4378,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>92528</xdr:colOff>
+      <xdr:colOff>369620</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:rowOff>40573</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1219200" cy="1219200"/>
     <xdr:pic>
@@ -4396,7 +4396,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16565583" y="54428"/>
+          <a:off x="16814965" y="40573"/>
           <a:ext cx="1219200" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -53922,15 +53922,15 @@
   </sheetPr>
   <dimension ref="A1:AS77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AR8" sqref="AR8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AW69" sqref="AW69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="33" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="4" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.33203125" style="3" customWidth="1"/>
@@ -53958,8 +53958,8 @@
     <col min="40" max="40" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="7.5546875" style="3" customWidth="1"/>
     <col min="42" max="42" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.33203125" style="37" customWidth="1"/>
-    <col min="44" max="44" width="11" style="3" customWidth="1"/>
+    <col min="43" max="43" width="7.33203125" style="33" customWidth="1"/>
+    <col min="44" max="44" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="45" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
@@ -53970,7 +53970,7 @@
       <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -54010,7 +54010,7 @@
       <c r="AN1" s="12"/>
       <c r="AO1" s="12"/>
       <c r="AP1" s="12"/>
-      <c r="AQ1" s="35"/>
+      <c r="AQ1" s="31"/>
       <c r="AR1" s="12"/>
     </row>
     <row r="2" spans="1:44" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -54020,7 +54020,7 @@
       <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="35"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -54062,7 +54062,7 @@
       <c r="AN2" s="12"/>
       <c r="AO2" s="12"/>
       <c r="AP2" s="12"/>
-      <c r="AQ2" s="35"/>
+      <c r="AQ2" s="31"/>
       <c r="AR2" s="12"/>
     </row>
     <row r="3" spans="1:44" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -54072,7 +54072,7 @@
       <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
@@ -54114,7 +54114,7 @@
       <c r="AN3" s="12"/>
       <c r="AO3" s="12"/>
       <c r="AP3" s="12"/>
-      <c r="AQ3" s="35"/>
+      <c r="AQ3" s="31"/>
       <c r="AR3" s="12"/>
     </row>
     <row r="4" spans="1:44" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -54124,7 +54124,7 @@
       <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -54164,7 +54164,7 @@
       <c r="AN4" s="12"/>
       <c r="AO4" s="12"/>
       <c r="AP4" s="12"/>
-      <c r="AQ4" s="35"/>
+      <c r="AQ4" s="31"/>
       <c r="AR4" s="12"/>
     </row>
     <row r="5" spans="1:44" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -54174,7 +54174,7 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -54214,7 +54214,7 @@
       <c r="AN5" s="12"/>
       <c r="AO5" s="12"/>
       <c r="AP5" s="12"/>
-      <c r="AQ5" s="35"/>
+      <c r="AQ5" s="31"/>
       <c r="AR5" s="12"/>
     </row>
     <row r="6" spans="1:44" ht="17.399999999999999" x14ac:dyDescent="0.35">
@@ -54224,7 +54224,7 @@
       <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -54264,7 +54264,7 @@
       <c r="AN6" s="12"/>
       <c r="AO6" s="12"/>
       <c r="AP6" s="12"/>
-      <c r="AQ6" s="35"/>
+      <c r="AQ6" s="31"/>
       <c r="AR6" s="12"/>
     </row>
     <row r="7" spans="1:44" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -54274,130 +54274,130 @@
       <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="31" t="s">
+      <c r="M7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="31" t="s">
+      <c r="O7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="32" t="s">
+      <c r="P7" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="32" t="s">
+      <c r="Q7" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="31" t="s">
+      <c r="R7" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="S7" s="31" t="s">
+      <c r="S7" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="T7" s="31" t="s">
+      <c r="T7" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="31" t="s">
+      <c r="U7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="31" t="s">
+      <c r="V7" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="32" t="s">
+      <c r="W7" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="X7" s="32" t="s">
+      <c r="X7" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="Y7" s="31" t="s">
+      <c r="Y7" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="Z7" s="31" t="s">
+      <c r="Z7" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AA7" s="31" t="s">
+      <c r="AA7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AB7" s="31" t="s">
+      <c r="AB7" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AC7" s="31" t="s">
+      <c r="AC7" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AD7" s="32" t="s">
+      <c r="AD7" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="AE7" s="32" t="s">
+      <c r="AE7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="AF7" s="31" t="s">
+      <c r="AF7" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="AG7" s="31" t="s">
+      <c r="AG7" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="AH7" s="31" t="s">
+      <c r="AH7" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="AI7" s="33" t="s">
+      <c r="AI7" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AJ7" s="31" t="s">
+      <c r="AJ7" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="AK7" s="31" t="s">
+      <c r="AK7" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="AL7" s="31" t="s">
+      <c r="AL7" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="AM7" s="31" t="s">
+      <c r="AM7" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="AN7" s="31" t="s">
+      <c r="AN7" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="AO7" s="31" t="s">
+      <c r="AO7" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="AP7" s="31" t="s">
+      <c r="AP7" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="AQ7" s="33" t="s">
+      <c r="AQ7" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="AR7" s="31" t="s">
+      <c r="AR7" s="27" t="s">
         <v>57</v>
       </c>
     </row>
@@ -54486,31 +54486,31 @@
         <v>59</v>
       </c>
       <c r="AH8" s="19"/>
-      <c r="AI8" s="29">
+      <c r="AI8" s="25">
         <f>COUNTA(D8:AH8)</f>
         <v>22</v>
       </c>
-      <c r="AJ8" s="43"/>
-      <c r="AK8" s="43"/>
-      <c r="AL8" s="29">
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="25">
         <f>+SUM(AI8:AK8)</f>
         <v>22</v>
       </c>
-      <c r="AM8" s="43">
+      <c r="AM8" s="39">
         <f>+AI8*$C$67</f>
         <v>383.22580645161344</v>
       </c>
-      <c r="AN8" s="43"/>
-      <c r="AO8" s="57"/>
-      <c r="AP8" s="34">
+      <c r="AN8" s="39"/>
+      <c r="AO8" s="47"/>
+      <c r="AP8" s="30">
         <v>100</v>
       </c>
-      <c r="AQ8" s="41" t="s">
+      <c r="AQ8" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR8" s="58">
-        <f>(AL8*AP8)</f>
-        <v>2200</v>
+      <c r="AR8" s="48">
+        <f>(AM8*AP8)</f>
+        <v>38322.580645161346</v>
       </c>
     </row>
     <row r="9" spans="1:44" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -54598,31 +54598,31 @@
         <v>59</v>
       </c>
       <c r="AH9" s="19"/>
-      <c r="AI9" s="29">
+      <c r="AI9" s="25">
         <f t="shared" ref="AI9:AI59" si="0">COUNTA(D9:AH9)</f>
         <v>22</v>
       </c>
-      <c r="AJ9" s="43"/>
-      <c r="AK9" s="43"/>
-      <c r="AL9" s="29">
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="25">
         <f t="shared" ref="AL9:AL60" si="1">+SUM(AI9:AK9)</f>
         <v>22</v>
       </c>
-      <c r="AM9" s="43">
+      <c r="AM9" s="39">
         <f t="shared" ref="AM9:AM60" si="2">+AI9*$C$67</f>
         <v>383.22580645161344</v>
       </c>
-      <c r="AN9" s="43"/>
-      <c r="AO9" s="57"/>
-      <c r="AP9" s="34">
+      <c r="AN9" s="39"/>
+      <c r="AO9" s="47"/>
+      <c r="AP9" s="30">
         <v>100</v>
       </c>
-      <c r="AQ9" s="41" t="s">
+      <c r="AQ9" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR9" s="58">
-        <f t="shared" ref="AR9:AR59" si="3">(AL9*AP9)</f>
-        <v>2200</v>
+      <c r="AR9" s="48">
+        <f t="shared" ref="AR9:AR59" si="3">(AM9*AP9)</f>
+        <v>38322.580645161346</v>
       </c>
     </row>
     <row r="10" spans="1:44" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -54710,31 +54710,31 @@
         <v>59</v>
       </c>
       <c r="AH10" s="19"/>
-      <c r="AI10" s="29">
+      <c r="AI10" s="25">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AJ10" s="43"/>
-      <c r="AK10" s="43"/>
-      <c r="AL10" s="29">
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="25">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AM10" s="43">
+      <c r="AM10" s="39">
         <f t="shared" si="2"/>
         <v>383.22580645161344</v>
       </c>
-      <c r="AN10" s="43"/>
-      <c r="AO10" s="57"/>
-      <c r="AP10" s="34">
+      <c r="AN10" s="39"/>
+      <c r="AO10" s="47"/>
+      <c r="AP10" s="30">
         <v>100</v>
       </c>
-      <c r="AQ10" s="41" t="s">
+      <c r="AQ10" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR10" s="58">
+      <c r="AR10" s="48">
         <f t="shared" si="3"/>
-        <v>2200</v>
+        <v>38322.580645161346</v>
       </c>
     </row>
     <row r="11" spans="1:44" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -54822,31 +54822,31 @@
         <v>59</v>
       </c>
       <c r="AH11" s="19"/>
-      <c r="AI11" s="29">
+      <c r="AI11" s="25">
         <f>COUNTA(D11:AH11)</f>
         <v>22</v>
       </c>
-      <c r="AJ11" s="43"/>
-      <c r="AK11" s="43"/>
-      <c r="AL11" s="29">
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39"/>
+      <c r="AL11" s="25">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AM11" s="43">
+      <c r="AM11" s="39">
         <f t="shared" si="2"/>
         <v>383.22580645161344</v>
       </c>
-      <c r="AN11" s="43"/>
-      <c r="AO11" s="57"/>
-      <c r="AP11" s="34">
+      <c r="AN11" s="39"/>
+      <c r="AO11" s="47"/>
+      <c r="AP11" s="30">
         <v>100</v>
       </c>
-      <c r="AQ11" s="41" t="s">
+      <c r="AQ11" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR11" s="58">
+      <c r="AR11" s="48">
         <f t="shared" si="3"/>
-        <v>2200</v>
+        <v>38322.580645161346</v>
       </c>
     </row>
     <row r="12" spans="1:44" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -54934,31 +54934,31 @@
         <v>59</v>
       </c>
       <c r="AH12" s="19"/>
-      <c r="AI12" s="29">
+      <c r="AI12" s="25">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AJ12" s="43"/>
-      <c r="AK12" s="43"/>
-      <c r="AL12" s="29">
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="25">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AM12" s="43">
+      <c r="AM12" s="39">
         <f t="shared" si="2"/>
         <v>383.22580645161344</v>
       </c>
-      <c r="AN12" s="43"/>
-      <c r="AO12" s="57"/>
-      <c r="AP12" s="34">
+      <c r="AN12" s="39"/>
+      <c r="AO12" s="47"/>
+      <c r="AP12" s="30">
         <v>100</v>
       </c>
-      <c r="AQ12" s="41" t="s">
+      <c r="AQ12" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR12" s="58">
+      <c r="AR12" s="48">
         <f t="shared" si="3"/>
-        <v>2200</v>
+        <v>38322.580645161346</v>
       </c>
     </row>
     <row r="13" spans="1:44" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -55046,31 +55046,31 @@
         <v>59</v>
       </c>
       <c r="AH13" s="19"/>
-      <c r="AI13" s="29">
+      <c r="AI13" s="25">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AJ13" s="43"/>
-      <c r="AK13" s="43"/>
-      <c r="AL13" s="29">
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="25">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AM13" s="43">
+      <c r="AM13" s="39">
         <f t="shared" si="2"/>
         <v>383.22580645161344</v>
       </c>
-      <c r="AN13" s="43"/>
-      <c r="AO13" s="57"/>
-      <c r="AP13" s="34">
+      <c r="AN13" s="39"/>
+      <c r="AO13" s="47"/>
+      <c r="AP13" s="30">
         <v>100</v>
       </c>
-      <c r="AQ13" s="41" t="s">
+      <c r="AQ13" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR13" s="58">
+      <c r="AR13" s="48">
         <f t="shared" si="3"/>
-        <v>2200</v>
+        <v>38322.580645161346</v>
       </c>
     </row>
     <row r="14" spans="1:44" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -55158,31 +55158,31 @@
         <v>59</v>
       </c>
       <c r="AH14" s="19"/>
-      <c r="AI14" s="29">
+      <c r="AI14" s="25">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AJ14" s="43"/>
-      <c r="AK14" s="43"/>
-      <c r="AL14" s="29">
+      <c r="AJ14" s="39"/>
+      <c r="AK14" s="39"/>
+      <c r="AL14" s="25">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AM14" s="43">
+      <c r="AM14" s="39">
         <f t="shared" si="2"/>
         <v>383.22580645161344</v>
       </c>
-      <c r="AN14" s="43"/>
-      <c r="AO14" s="57"/>
-      <c r="AP14" s="34">
+      <c r="AN14" s="39"/>
+      <c r="AO14" s="47"/>
+      <c r="AP14" s="30">
         <v>100</v>
       </c>
-      <c r="AQ14" s="41" t="s">
+      <c r="AQ14" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR14" s="58">
+      <c r="AR14" s="48">
         <f t="shared" si="3"/>
-        <v>2200</v>
+        <v>38322.580645161346</v>
       </c>
     </row>
     <row r="15" spans="1:44" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -55270,31 +55270,31 @@
         <v>59</v>
       </c>
       <c r="AH15" s="19"/>
-      <c r="AI15" s="29">
+      <c r="AI15" s="25">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AJ15" s="43"/>
-      <c r="AK15" s="43"/>
-      <c r="AL15" s="29">
+      <c r="AJ15" s="39"/>
+      <c r="AK15" s="39"/>
+      <c r="AL15" s="25">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AM15" s="43">
+      <c r="AM15" s="39">
         <f t="shared" si="2"/>
         <v>383.22580645161344</v>
       </c>
-      <c r="AN15" s="43"/>
-      <c r="AO15" s="57"/>
-      <c r="AP15" s="34">
+      <c r="AN15" s="39"/>
+      <c r="AO15" s="47"/>
+      <c r="AP15" s="30">
         <v>100</v>
       </c>
-      <c r="AQ15" s="41" t="s">
+      <c r="AQ15" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR15" s="58">
+      <c r="AR15" s="48">
         <f t="shared" si="3"/>
-        <v>2200</v>
+        <v>38322.580645161346</v>
       </c>
     </row>
     <row r="16" spans="1:44" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -55382,31 +55382,31 @@
         <v>59</v>
       </c>
       <c r="AH16" s="19"/>
-      <c r="AI16" s="29">
+      <c r="AI16" s="25">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AJ16" s="43"/>
-      <c r="AK16" s="43"/>
-      <c r="AL16" s="29">
+      <c r="AJ16" s="39"/>
+      <c r="AK16" s="39"/>
+      <c r="AL16" s="25">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AM16" s="43">
+      <c r="AM16" s="39">
         <f t="shared" si="2"/>
         <v>383.22580645161344</v>
       </c>
-      <c r="AN16" s="43"/>
-      <c r="AO16" s="57"/>
-      <c r="AP16" s="34">
+      <c r="AN16" s="39"/>
+      <c r="AO16" s="47"/>
+      <c r="AP16" s="30">
         <v>100</v>
       </c>
-      <c r="AQ16" s="41" t="s">
+      <c r="AQ16" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR16" s="58">
+      <c r="AR16" s="48">
         <f t="shared" si="3"/>
-        <v>2200</v>
+        <v>38322.580645161346</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -55494,31 +55494,31 @@
         <v>59</v>
       </c>
       <c r="AH17" s="19"/>
-      <c r="AI17" s="29">
+      <c r="AI17" s="25">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AJ17" s="43"/>
-      <c r="AK17" s="43"/>
-      <c r="AL17" s="29">
+      <c r="AJ17" s="39"/>
+      <c r="AK17" s="39"/>
+      <c r="AL17" s="25">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AM17" s="43">
+      <c r="AM17" s="39">
         <f t="shared" si="2"/>
         <v>383.22580645161344</v>
       </c>
-      <c r="AN17" s="43"/>
-      <c r="AO17" s="57"/>
-      <c r="AP17" s="34">
+      <c r="AN17" s="39"/>
+      <c r="AO17" s="47"/>
+      <c r="AP17" s="30">
         <v>100</v>
       </c>
-      <c r="AQ17" s="41" t="s">
+      <c r="AQ17" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR17" s="58">
+      <c r="AR17" s="48">
         <f t="shared" si="3"/>
-        <v>2200</v>
+        <v>38322.580645161346</v>
       </c>
     </row>
     <row r="18" spans="1:44" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -55606,31 +55606,31 @@
         <v>59</v>
       </c>
       <c r="AH18" s="19"/>
-      <c r="AI18" s="29">
+      <c r="AI18" s="25">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AJ18" s="43"/>
-      <c r="AK18" s="43"/>
-      <c r="AL18" s="29">
+      <c r="AJ18" s="39"/>
+      <c r="AK18" s="39"/>
+      <c r="AL18" s="25">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AM18" s="43">
+      <c r="AM18" s="39">
         <f t="shared" si="2"/>
         <v>383.22580645161344</v>
       </c>
-      <c r="AN18" s="43"/>
-      <c r="AO18" s="57"/>
-      <c r="AP18" s="34">
+      <c r="AN18" s="39"/>
+      <c r="AO18" s="47"/>
+      <c r="AP18" s="30">
         <v>100</v>
       </c>
-      <c r="AQ18" s="41" t="s">
+      <c r="AQ18" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR18" s="58">
+      <c r="AR18" s="48">
         <f t="shared" si="3"/>
-        <v>2200</v>
+        <v>38322.580645161346</v>
       </c>
     </row>
     <row r="19" spans="1:44" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -55718,31 +55718,31 @@
         <v>59</v>
       </c>
       <c r="AH19" s="19"/>
-      <c r="AI19" s="29">
+      <c r="AI19" s="25">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AJ19" s="43"/>
-      <c r="AK19" s="43"/>
-      <c r="AL19" s="29">
+      <c r="AJ19" s="39"/>
+      <c r="AK19" s="39"/>
+      <c r="AL19" s="25">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AM19" s="43">
+      <c r="AM19" s="39">
         <f t="shared" si="2"/>
         <v>383.22580645161344</v>
       </c>
-      <c r="AN19" s="43"/>
-      <c r="AO19" s="57"/>
-      <c r="AP19" s="34">
+      <c r="AN19" s="39"/>
+      <c r="AO19" s="47"/>
+      <c r="AP19" s="30">
         <v>100</v>
       </c>
-      <c r="AQ19" s="41" t="s">
+      <c r="AQ19" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR19" s="58">
+      <c r="AR19" s="48">
         <f t="shared" si="3"/>
-        <v>2200</v>
+        <v>38322.580645161346</v>
       </c>
     </row>
     <row r="20" spans="1:44" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -55830,31 +55830,31 @@
         <v>59</v>
       </c>
       <c r="AH20" s="19"/>
-      <c r="AI20" s="29">
+      <c r="AI20" s="25">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AJ20" s="43"/>
-      <c r="AK20" s="43"/>
-      <c r="AL20" s="29">
+      <c r="AJ20" s="39"/>
+      <c r="AK20" s="39"/>
+      <c r="AL20" s="25">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AM20" s="43">
+      <c r="AM20" s="39">
         <f t="shared" si="2"/>
         <v>383.22580645161344</v>
       </c>
-      <c r="AN20" s="43"/>
-      <c r="AO20" s="57"/>
-      <c r="AP20" s="34">
+      <c r="AN20" s="39"/>
+      <c r="AO20" s="47"/>
+      <c r="AP20" s="30">
         <v>100</v>
       </c>
-      <c r="AQ20" s="41" t="s">
+      <c r="AQ20" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR20" s="58">
+      <c r="AR20" s="48">
         <f t="shared" si="3"/>
-        <v>2200</v>
+        <v>38322.580645161346</v>
       </c>
     </row>
     <row r="21" spans="1:44" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -55864,63 +55864,63 @@
       <c r="B21" s="17">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="36">
         <v>2</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="29"/>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="29"/>
-      <c r="AI21" s="29">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25"/>
+      <c r="AI21" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ21" s="43"/>
-      <c r="AK21" s="43"/>
-      <c r="AL21" s="29">
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="39"/>
+      <c r="AL21" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM21" s="43">
+      <c r="AM21" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN21" s="43"/>
-      <c r="AO21" s="57"/>
-      <c r="AP21" s="34">
+      <c r="AN21" s="39"/>
+      <c r="AO21" s="47"/>
+      <c r="AP21" s="30">
         <v>80</v>
       </c>
-      <c r="AQ21" s="41" t="s">
+      <c r="AQ21" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR21" s="58">
+      <c r="AR21" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -55932,63 +55932,63 @@
       <c r="B22" s="17">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="36">
         <v>2</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="29"/>
-      <c r="AI22" s="29">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
+      <c r="AI22" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ22" s="43"/>
-      <c r="AK22" s="43"/>
-      <c r="AL22" s="29">
+      <c r="AJ22" s="39"/>
+      <c r="AK22" s="39"/>
+      <c r="AL22" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM22" s="43">
+      <c r="AM22" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN22" s="43"/>
-      <c r="AO22" s="57"/>
-      <c r="AP22" s="34">
+      <c r="AN22" s="39"/>
+      <c r="AO22" s="47"/>
+      <c r="AP22" s="30">
         <v>80</v>
       </c>
-      <c r="AQ22" s="41" t="s">
+      <c r="AQ22" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR22" s="58">
+      <c r="AR22" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -56000,63 +56000,63 @@
       <c r="B23" s="17">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23" s="36">
         <v>2</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="29"/>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="29"/>
-      <c r="AI23" s="29">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ23" s="43"/>
-      <c r="AK23" s="43"/>
-      <c r="AL23" s="29">
+      <c r="AJ23" s="39"/>
+      <c r="AK23" s="39"/>
+      <c r="AL23" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM23" s="43">
+      <c r="AM23" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN23" s="43"/>
-      <c r="AO23" s="57"/>
-      <c r="AP23" s="34">
+      <c r="AN23" s="39"/>
+      <c r="AO23" s="47"/>
+      <c r="AP23" s="30">
         <v>80</v>
       </c>
-      <c r="AQ23" s="41" t="s">
+      <c r="AQ23" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR23" s="58">
+      <c r="AR23" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -56068,63 +56068,63 @@
       <c r="B24" s="17">
         <v>0.22</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="36">
         <v>2</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="29"/>
-      <c r="AH24" s="29"/>
-      <c r="AI24" s="29">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ24" s="43"/>
-      <c r="AK24" s="43"/>
-      <c r="AL24" s="29">
+      <c r="AJ24" s="39"/>
+      <c r="AK24" s="39"/>
+      <c r="AL24" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM24" s="43">
+      <c r="AM24" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN24" s="43"/>
-      <c r="AO24" s="57"/>
-      <c r="AP24" s="34">
+      <c r="AN24" s="39"/>
+      <c r="AO24" s="47"/>
+      <c r="AP24" s="30">
         <v>80</v>
       </c>
-      <c r="AQ24" s="41" t="s">
+      <c r="AQ24" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR24" s="58">
+      <c r="AR24" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -56136,109 +56136,109 @@
       <c r="B25" s="17">
         <v>0.22</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C25" s="36">
         <v>2</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29" t="s">
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="K25" s="29" t="s">
+      <c r="K25" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="L25" s="29" t="s">
+      <c r="L25" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="M25" s="29" t="s">
+      <c r="M25" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="N25" s="29" t="s">
+      <c r="N25" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29" t="s">
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="R25" s="29" t="s">
+      <c r="R25" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="S25" s="29" t="s">
+      <c r="S25" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="T25" s="29" t="s">
+      <c r="T25" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="U25" s="29" t="s">
+      <c r="U25" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29" t="s">
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="Y25" s="29" t="s">
+      <c r="Y25" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="Z25" s="29" t="s">
+      <c r="Z25" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AA25" s="29" t="s">
+      <c r="AA25" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AB25" s="29" t="s">
+      <c r="AB25" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="29" t="s">
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AF25" s="29" t="s">
+      <c r="AF25" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AG25" s="29" t="s">
+      <c r="AG25" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AH25" s="29"/>
-      <c r="AI25" s="29">
+      <c r="AH25" s="25"/>
+      <c r="AI25" s="25">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AJ25" s="43"/>
-      <c r="AK25" s="43"/>
-      <c r="AL25" s="29">
+      <c r="AJ25" s="39"/>
+      <c r="AK25" s="39"/>
+      <c r="AL25" s="25">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AM25" s="43">
+      <c r="AM25" s="39">
         <f t="shared" si="2"/>
         <v>383.22580645161344</v>
       </c>
-      <c r="AN25" s="43"/>
-      <c r="AO25" s="57"/>
-      <c r="AP25" s="34">
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="47"/>
+      <c r="AP25" s="30">
         <v>80</v>
       </c>
-      <c r="AQ25" s="41" t="s">
+      <c r="AQ25" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR25" s="58">
+      <c r="AR25" s="48">
         <f t="shared" si="3"/>
-        <v>1760</v>
+        <v>30658.064516129074</v>
       </c>
     </row>
     <row r="26" spans="1:44" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -56248,109 +56248,109 @@
       <c r="B26" s="17">
         <v>0.22</v>
       </c>
-      <c r="C26" s="40">
+      <c r="C26" s="36">
         <v>2</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29" t="s">
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="K26" s="29" t="s">
+      <c r="K26" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="L26" s="29" t="s">
+      <c r="L26" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="M26" s="29" t="s">
+      <c r="M26" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="N26" s="29" t="s">
+      <c r="N26" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29" t="s">
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="R26" s="29" t="s">
+      <c r="R26" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="S26" s="29" t="s">
+      <c r="S26" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="T26" s="29" t="s">
+      <c r="T26" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="U26" s="29" t="s">
+      <c r="U26" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29" t="s">
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="Y26" s="29" t="s">
+      <c r="Y26" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="Z26" s="29" t="s">
+      <c r="Z26" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AA26" s="29" t="s">
+      <c r="AA26" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AB26" s="29" t="s">
+      <c r="AB26" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="29" t="s">
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AF26" s="29" t="s">
+      <c r="AF26" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AG26" s="29" t="s">
+      <c r="AG26" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AH26" s="29"/>
-      <c r="AI26" s="29">
+      <c r="AH26" s="25"/>
+      <c r="AI26" s="25">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AJ26" s="43"/>
-      <c r="AK26" s="43"/>
-      <c r="AL26" s="29">
+      <c r="AJ26" s="39"/>
+      <c r="AK26" s="39"/>
+      <c r="AL26" s="25">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AM26" s="43">
+      <c r="AM26" s="39">
         <f t="shared" si="2"/>
         <v>383.22580645161344</v>
       </c>
-      <c r="AN26" s="43"/>
-      <c r="AO26" s="57"/>
-      <c r="AP26" s="34">
+      <c r="AN26" s="39"/>
+      <c r="AO26" s="47"/>
+      <c r="AP26" s="30">
         <v>80</v>
       </c>
-      <c r="AQ26" s="41" t="s">
+      <c r="AQ26" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR26" s="58">
+      <c r="AR26" s="48">
         <f t="shared" si="3"/>
-        <v>1760</v>
+        <v>30658.064516129074</v>
       </c>
     </row>
     <row r="27" spans="1:44" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -56360,109 +56360,109 @@
       <c r="B27" s="17">
         <v>0.22</v>
       </c>
-      <c r="C27" s="40">
+      <c r="C27" s="36">
         <v>2</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29" t="s">
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="K27" s="29" t="s">
+      <c r="K27" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="L27" s="29" t="s">
+      <c r="L27" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="M27" s="29" t="s">
+      <c r="M27" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="N27" s="29" t="s">
+      <c r="N27" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29" t="s">
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="R27" s="29" t="s">
+      <c r="R27" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="S27" s="29" t="s">
+      <c r="S27" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="T27" s="29" t="s">
+      <c r="T27" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="U27" s="29" t="s">
+      <c r="U27" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29" t="s">
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="Y27" s="29" t="s">
+      <c r="Y27" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="Z27" s="29" t="s">
+      <c r="Z27" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AA27" s="29" t="s">
+      <c r="AA27" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AB27" s="29" t="s">
+      <c r="AB27" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
-      <c r="AE27" s="29" t="s">
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AF27" s="29" t="s">
+      <c r="AF27" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AG27" s="29" t="s">
+      <c r="AG27" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AH27" s="29"/>
-      <c r="AI27" s="29">
+      <c r="AH27" s="25"/>
+      <c r="AI27" s="25">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AJ27" s="43"/>
-      <c r="AK27" s="43"/>
-      <c r="AL27" s="29">
+      <c r="AJ27" s="39"/>
+      <c r="AK27" s="39"/>
+      <c r="AL27" s="25">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AM27" s="43">
+      <c r="AM27" s="39">
         <f t="shared" si="2"/>
         <v>383.22580645161344</v>
       </c>
-      <c r="AN27" s="43"/>
-      <c r="AO27" s="57"/>
-      <c r="AP27" s="34">
+      <c r="AN27" s="39"/>
+      <c r="AO27" s="47"/>
+      <c r="AP27" s="30">
         <v>80</v>
       </c>
-      <c r="AQ27" s="41" t="s">
+      <c r="AQ27" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR27" s="58">
+      <c r="AR27" s="48">
         <f t="shared" si="3"/>
-        <v>1760</v>
+        <v>30658.064516129074</v>
       </c>
     </row>
     <row r="28" spans="1:44" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -56472,109 +56472,109 @@
       <c r="B28" s="17">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C28" s="40">
+      <c r="C28" s="36">
         <v>2</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29" t="s">
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="K28" s="29" t="s">
+      <c r="K28" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="L28" s="29" t="s">
+      <c r="L28" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="M28" s="29" t="s">
+      <c r="M28" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="N28" s="29" t="s">
+      <c r="N28" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29" t="s">
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="R28" s="29" t="s">
+      <c r="R28" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="S28" s="29" t="s">
+      <c r="S28" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="T28" s="29" t="s">
+      <c r="T28" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="U28" s="29" t="s">
+      <c r="U28" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29" t="s">
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="Y28" s="29" t="s">
+      <c r="Y28" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="Z28" s="29" t="s">
+      <c r="Z28" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AA28" s="29" t="s">
+      <c r="AA28" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AB28" s="29" t="s">
+      <c r="AB28" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="29" t="s">
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AF28" s="29" t="s">
+      <c r="AF28" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AG28" s="29" t="s">
+      <c r="AG28" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AH28" s="29"/>
-      <c r="AI28" s="29">
+      <c r="AH28" s="25"/>
+      <c r="AI28" s="25">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AJ28" s="43"/>
-      <c r="AK28" s="43"/>
-      <c r="AL28" s="29">
+      <c r="AJ28" s="39"/>
+      <c r="AK28" s="39"/>
+      <c r="AL28" s="25">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AM28" s="43">
+      <c r="AM28" s="39">
         <f t="shared" si="2"/>
         <v>383.22580645161344</v>
       </c>
-      <c r="AN28" s="43"/>
-      <c r="AO28" s="57"/>
-      <c r="AP28" s="34">
+      <c r="AN28" s="39"/>
+      <c r="AO28" s="47"/>
+      <c r="AP28" s="30">
         <v>80</v>
       </c>
-      <c r="AQ28" s="41" t="s">
+      <c r="AQ28" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR28" s="58">
+      <c r="AR28" s="48">
         <f t="shared" si="3"/>
-        <v>1760</v>
+        <v>30658.064516129074</v>
       </c>
     </row>
     <row r="29" spans="1:44" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -56584,63 +56584,63 @@
       <c r="B29" s="17">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C29" s="40">
+      <c r="C29" s="36">
         <v>2</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="29"/>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="29"/>
-      <c r="AI29" s="29">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="25"/>
+      <c r="AD29" s="25"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="25"/>
+      <c r="AI29" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ29" s="43"/>
-      <c r="AK29" s="43"/>
-      <c r="AL29" s="29">
+      <c r="AJ29" s="39"/>
+      <c r="AK29" s="39"/>
+      <c r="AL29" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM29" s="43">
+      <c r="AM29" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN29" s="43"/>
-      <c r="AO29" s="57"/>
-      <c r="AP29" s="34">
+      <c r="AN29" s="39"/>
+      <c r="AO29" s="47"/>
+      <c r="AP29" s="30">
         <v>80</v>
       </c>
-      <c r="AQ29" s="41" t="s">
+      <c r="AQ29" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR29" s="58">
+      <c r="AR29" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -56652,63 +56652,63 @@
       <c r="B30" s="17">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="36">
         <v>2</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29"/>
-      <c r="AE30" s="29"/>
-      <c r="AF30" s="29"/>
-      <c r="AG30" s="29"/>
-      <c r="AH30" s="29"/>
-      <c r="AI30" s="29">
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="25"/>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="25"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="25"/>
+      <c r="AI30" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ30" s="43"/>
-      <c r="AK30" s="43"/>
-      <c r="AL30" s="29">
+      <c r="AJ30" s="39"/>
+      <c r="AK30" s="39"/>
+      <c r="AL30" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM30" s="43">
+      <c r="AM30" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN30" s="43"/>
-      <c r="AO30" s="57"/>
-      <c r="AP30" s="34">
+      <c r="AN30" s="39"/>
+      <c r="AO30" s="47"/>
+      <c r="AP30" s="30">
         <v>80</v>
       </c>
-      <c r="AQ30" s="41" t="s">
+      <c r="AQ30" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR30" s="58">
+      <c r="AR30" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -56720,63 +56720,63 @@
       <c r="B31" s="17">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C31" s="40">
+      <c r="C31" s="36">
         <v>2</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="29"/>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="29"/>
-      <c r="AE31" s="29"/>
-      <c r="AF31" s="29"/>
-      <c r="AG31" s="29"/>
-      <c r="AH31" s="29"/>
-      <c r="AI31" s="29">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="25"/>
+      <c r="AD31" s="25"/>
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="25"/>
+      <c r="AG31" s="25"/>
+      <c r="AH31" s="25"/>
+      <c r="AI31" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ31" s="43"/>
-      <c r="AK31" s="43"/>
-      <c r="AL31" s="29">
+      <c r="AJ31" s="39"/>
+      <c r="AK31" s="39"/>
+      <c r="AL31" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM31" s="43">
+      <c r="AM31" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN31" s="43"/>
-      <c r="AO31" s="57"/>
-      <c r="AP31" s="34">
+      <c r="AN31" s="39"/>
+      <c r="AO31" s="47"/>
+      <c r="AP31" s="30">
         <v>80</v>
       </c>
-      <c r="AQ31" s="41" t="s">
+      <c r="AQ31" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR31" s="58">
+      <c r="AR31" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -56788,63 +56788,63 @@
       <c r="B32" s="17">
         <v>0.25</v>
       </c>
-      <c r="C32" s="40">
+      <c r="C32" s="36">
         <v>2</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="29"/>
-      <c r="AB32" s="29"/>
-      <c r="AC32" s="29"/>
-      <c r="AD32" s="29"/>
-      <c r="AE32" s="29"/>
-      <c r="AF32" s="29"/>
-      <c r="AG32" s="29"/>
-      <c r="AH32" s="29"/>
-      <c r="AI32" s="29">
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="25"/>
+      <c r="AD32" s="25"/>
+      <c r="AE32" s="25"/>
+      <c r="AF32" s="25"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="25"/>
+      <c r="AI32" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ32" s="43"/>
-      <c r="AK32" s="43"/>
-      <c r="AL32" s="29">
+      <c r="AJ32" s="39"/>
+      <c r="AK32" s="39"/>
+      <c r="AL32" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM32" s="43">
+      <c r="AM32" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN32" s="43"/>
-      <c r="AO32" s="57"/>
-      <c r="AP32" s="34">
+      <c r="AN32" s="39"/>
+      <c r="AO32" s="47"/>
+      <c r="AP32" s="30">
         <v>80</v>
       </c>
-      <c r="AQ32" s="41" t="s">
+      <c r="AQ32" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR32" s="58">
+      <c r="AR32" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -56856,63 +56856,63 @@
       <c r="B33" s="17">
         <v>0.25</v>
       </c>
-      <c r="C33" s="40">
+      <c r="C33" s="36">
         <v>2</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="29"/>
-      <c r="AA33" s="29"/>
-      <c r="AB33" s="29"/>
-      <c r="AC33" s="29"/>
-      <c r="AD33" s="29"/>
-      <c r="AE33" s="29"/>
-      <c r="AF33" s="29"/>
-      <c r="AG33" s="29"/>
-      <c r="AH33" s="29"/>
-      <c r="AI33" s="29">
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
+      <c r="AC33" s="25"/>
+      <c r="AD33" s="25"/>
+      <c r="AE33" s="25"/>
+      <c r="AF33" s="25"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="25"/>
+      <c r="AI33" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ33" s="43"/>
-      <c r="AK33" s="43"/>
-      <c r="AL33" s="29">
+      <c r="AJ33" s="39"/>
+      <c r="AK33" s="39"/>
+      <c r="AL33" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM33" s="43">
+      <c r="AM33" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN33" s="43"/>
-      <c r="AO33" s="57"/>
-      <c r="AP33" s="34">
+      <c r="AN33" s="39"/>
+      <c r="AO33" s="47"/>
+      <c r="AP33" s="30">
         <v>80</v>
       </c>
-      <c r="AQ33" s="41" t="s">
+      <c r="AQ33" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR33" s="58">
+      <c r="AR33" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -56924,63 +56924,63 @@
       <c r="B34" s="17">
         <v>0.25</v>
       </c>
-      <c r="C34" s="40">
+      <c r="C34" s="36">
         <v>2</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="29"/>
-      <c r="AB34" s="29"/>
-      <c r="AC34" s="29"/>
-      <c r="AD34" s="29"/>
-      <c r="AE34" s="29"/>
-      <c r="AF34" s="29"/>
-      <c r="AG34" s="29"/>
-      <c r="AH34" s="29"/>
-      <c r="AI34" s="29">
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="25"/>
+      <c r="AC34" s="25"/>
+      <c r="AD34" s="25"/>
+      <c r="AE34" s="25"/>
+      <c r="AF34" s="25"/>
+      <c r="AG34" s="25"/>
+      <c r="AH34" s="25"/>
+      <c r="AI34" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ34" s="43"/>
-      <c r="AK34" s="43"/>
-      <c r="AL34" s="29">
+      <c r="AJ34" s="39"/>
+      <c r="AK34" s="39"/>
+      <c r="AL34" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM34" s="43">
+      <c r="AM34" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN34" s="43"/>
-      <c r="AO34" s="57"/>
-      <c r="AP34" s="34">
+      <c r="AN34" s="39"/>
+      <c r="AO34" s="47"/>
+      <c r="AP34" s="30">
         <v>80</v>
       </c>
-      <c r="AQ34" s="41" t="s">
+      <c r="AQ34" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR34" s="58">
+      <c r="AR34" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -56992,63 +56992,63 @@
       <c r="B35" s="17">
         <v>0.25</v>
       </c>
-      <c r="C35" s="40">
+      <c r="C35" s="36">
         <v>2</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="29"/>
-      <c r="AA35" s="29"/>
-      <c r="AB35" s="29"/>
-      <c r="AC35" s="29"/>
-      <c r="AD35" s="29"/>
-      <c r="AE35" s="29"/>
-      <c r="AF35" s="29"/>
-      <c r="AG35" s="29"/>
-      <c r="AH35" s="29"/>
-      <c r="AI35" s="29">
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="25"/>
+      <c r="AC35" s="25"/>
+      <c r="AD35" s="25"/>
+      <c r="AE35" s="25"/>
+      <c r="AF35" s="25"/>
+      <c r="AG35" s="25"/>
+      <c r="AH35" s="25"/>
+      <c r="AI35" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ35" s="43"/>
-      <c r="AK35" s="43"/>
-      <c r="AL35" s="29">
+      <c r="AJ35" s="39"/>
+      <c r="AK35" s="39"/>
+      <c r="AL35" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM35" s="43">
+      <c r="AM35" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN35" s="43"/>
-      <c r="AO35" s="57"/>
-      <c r="AP35" s="34">
+      <c r="AN35" s="39"/>
+      <c r="AO35" s="47"/>
+      <c r="AP35" s="30">
         <v>80</v>
       </c>
-      <c r="AQ35" s="41" t="s">
+      <c r="AQ35" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR35" s="58">
+      <c r="AR35" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -57060,63 +57060,63 @@
       <c r="B36" s="17">
         <v>0.24</v>
       </c>
-      <c r="C36" s="40">
+      <c r="C36" s="36">
         <v>2</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="29"/>
-      <c r="AA36" s="29"/>
-      <c r="AB36" s="29"/>
-      <c r="AC36" s="29"/>
-      <c r="AD36" s="29"/>
-      <c r="AE36" s="29"/>
-      <c r="AF36" s="29"/>
-      <c r="AG36" s="29"/>
-      <c r="AH36" s="29"/>
-      <c r="AI36" s="29">
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="25"/>
+      <c r="AD36" s="25"/>
+      <c r="AE36" s="25"/>
+      <c r="AF36" s="25"/>
+      <c r="AG36" s="25"/>
+      <c r="AH36" s="25"/>
+      <c r="AI36" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ36" s="43"/>
-      <c r="AK36" s="43"/>
-      <c r="AL36" s="29">
+      <c r="AJ36" s="39"/>
+      <c r="AK36" s="39"/>
+      <c r="AL36" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM36" s="43">
+      <c r="AM36" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN36" s="43"/>
-      <c r="AO36" s="57"/>
-      <c r="AP36" s="34">
+      <c r="AN36" s="39"/>
+      <c r="AO36" s="47"/>
+      <c r="AP36" s="30">
         <v>80</v>
       </c>
-      <c r="AQ36" s="41" t="s">
+      <c r="AQ36" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR36" s="58">
+      <c r="AR36" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -57128,63 +57128,63 @@
       <c r="B37" s="17">
         <v>0.24</v>
       </c>
-      <c r="C37" s="40">
+      <c r="C37" s="36">
         <v>2</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="29"/>
-      <c r="AB37" s="29"/>
-      <c r="AC37" s="29"/>
-      <c r="AD37" s="29"/>
-      <c r="AE37" s="29"/>
-      <c r="AF37" s="29"/>
-      <c r="AG37" s="29"/>
-      <c r="AH37" s="29"/>
-      <c r="AI37" s="29">
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="25"/>
+      <c r="AC37" s="25"/>
+      <c r="AD37" s="25"/>
+      <c r="AE37" s="25"/>
+      <c r="AF37" s="25"/>
+      <c r="AG37" s="25"/>
+      <c r="AH37" s="25"/>
+      <c r="AI37" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ37" s="43"/>
-      <c r="AK37" s="43"/>
-      <c r="AL37" s="29">
+      <c r="AJ37" s="39"/>
+      <c r="AK37" s="39"/>
+      <c r="AL37" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM37" s="43">
+      <c r="AM37" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN37" s="43"/>
-      <c r="AO37" s="57"/>
-      <c r="AP37" s="34">
+      <c r="AN37" s="39"/>
+      <c r="AO37" s="47"/>
+      <c r="AP37" s="30">
         <v>80</v>
       </c>
-      <c r="AQ37" s="41" t="s">
+      <c r="AQ37" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR37" s="58">
+      <c r="AR37" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -57196,63 +57196,63 @@
       <c r="B38" s="17">
         <v>0.24</v>
       </c>
-      <c r="C38" s="40">
+      <c r="C38" s="36">
         <v>2</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="29"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="29"/>
-      <c r="AE38" s="29"/>
-      <c r="AF38" s="29"/>
-      <c r="AG38" s="29"/>
-      <c r="AH38" s="29"/>
-      <c r="AI38" s="29">
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="25"/>
+      <c r="AG38" s="25"/>
+      <c r="AH38" s="25"/>
+      <c r="AI38" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ38" s="43"/>
-      <c r="AK38" s="43"/>
-      <c r="AL38" s="29">
+      <c r="AJ38" s="39"/>
+      <c r="AK38" s="39"/>
+      <c r="AL38" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM38" s="43">
+      <c r="AM38" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN38" s="43"/>
-      <c r="AO38" s="57"/>
-      <c r="AP38" s="34">
+      <c r="AN38" s="39"/>
+      <c r="AO38" s="47"/>
+      <c r="AP38" s="30">
         <v>80</v>
       </c>
-      <c r="AQ38" s="41" t="s">
+      <c r="AQ38" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR38" s="58">
+      <c r="AR38" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -57264,63 +57264,63 @@
       <c r="B39" s="17">
         <v>0.24</v>
       </c>
-      <c r="C39" s="40">
+      <c r="C39" s="36">
         <v>2</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
-      <c r="AA39" s="29"/>
-      <c r="AB39" s="29"/>
-      <c r="AC39" s="29"/>
-      <c r="AD39" s="29"/>
-      <c r="AE39" s="29"/>
-      <c r="AF39" s="29"/>
-      <c r="AG39" s="29"/>
-      <c r="AH39" s="29"/>
-      <c r="AI39" s="29">
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="25"/>
+      <c r="AI39" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ39" s="43"/>
-      <c r="AK39" s="43"/>
-      <c r="AL39" s="29">
+      <c r="AJ39" s="39"/>
+      <c r="AK39" s="39"/>
+      <c r="AL39" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM39" s="43">
+      <c r="AM39" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN39" s="43"/>
-      <c r="AO39" s="57"/>
-      <c r="AP39" s="34">
+      <c r="AN39" s="39"/>
+      <c r="AO39" s="47"/>
+      <c r="AP39" s="30">
         <v>80</v>
       </c>
-      <c r="AQ39" s="41" t="s">
+      <c r="AQ39" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR39" s="58">
+      <c r="AR39" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -57332,63 +57332,63 @@
       <c r="B40" s="17">
         <v>0.24</v>
       </c>
-      <c r="C40" s="40">
+      <c r="C40" s="36">
         <v>2</v>
       </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29"/>
-      <c r="Y40" s="29"/>
-      <c r="Z40" s="29"/>
-      <c r="AA40" s="29"/>
-      <c r="AB40" s="29"/>
-      <c r="AC40" s="29"/>
-      <c r="AD40" s="29"/>
-      <c r="AE40" s="29"/>
-      <c r="AF40" s="29"/>
-      <c r="AG40" s="29"/>
-      <c r="AH40" s="29"/>
-      <c r="AI40" s="29">
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
+      <c r="W40" s="25"/>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="25"/>
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="25"/>
+      <c r="AC40" s="25"/>
+      <c r="AD40" s="25"/>
+      <c r="AE40" s="25"/>
+      <c r="AF40" s="25"/>
+      <c r="AG40" s="25"/>
+      <c r="AH40" s="25"/>
+      <c r="AI40" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ40" s="43"/>
-      <c r="AK40" s="43"/>
-      <c r="AL40" s="29">
+      <c r="AJ40" s="39"/>
+      <c r="AK40" s="39"/>
+      <c r="AL40" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM40" s="43">
+      <c r="AM40" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN40" s="43"/>
-      <c r="AO40" s="57"/>
-      <c r="AP40" s="34">
+      <c r="AN40" s="39"/>
+      <c r="AO40" s="47"/>
+      <c r="AP40" s="30">
         <v>80</v>
       </c>
-      <c r="AQ40" s="41" t="s">
+      <c r="AQ40" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR40" s="58">
+      <c r="AR40" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -57400,63 +57400,63 @@
       <c r="B41" s="17">
         <v>0.24</v>
       </c>
-      <c r="C41" s="40">
+      <c r="C41" s="36">
         <v>2</v>
       </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="29"/>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
-      <c r="AE41" s="29"/>
-      <c r="AF41" s="29"/>
-      <c r="AG41" s="29"/>
-      <c r="AH41" s="29"/>
-      <c r="AI41" s="29">
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="25"/>
+      <c r="AC41" s="25"/>
+      <c r="AD41" s="25"/>
+      <c r="AE41" s="25"/>
+      <c r="AF41" s="25"/>
+      <c r="AG41" s="25"/>
+      <c r="AH41" s="25"/>
+      <c r="AI41" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ41" s="43"/>
-      <c r="AK41" s="43"/>
-      <c r="AL41" s="29">
+      <c r="AJ41" s="39"/>
+      <c r="AK41" s="39"/>
+      <c r="AL41" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM41" s="43">
+      <c r="AM41" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN41" s="43"/>
-      <c r="AO41" s="57"/>
-      <c r="AP41" s="34">
+      <c r="AN41" s="39"/>
+      <c r="AO41" s="47"/>
+      <c r="AP41" s="30">
         <v>80</v>
       </c>
-      <c r="AQ41" s="41" t="s">
+      <c r="AQ41" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR41" s="58">
+      <c r="AR41" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -57468,63 +57468,63 @@
       <c r="B42" s="17">
         <v>0.24</v>
       </c>
-      <c r="C42" s="40">
+      <c r="C42" s="36">
         <v>2</v>
       </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
-      <c r="Y42" s="29"/>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="29"/>
-      <c r="AB42" s="29"/>
-      <c r="AC42" s="29"/>
-      <c r="AD42" s="29"/>
-      <c r="AE42" s="29"/>
-      <c r="AF42" s="29"/>
-      <c r="AG42" s="29"/>
-      <c r="AH42" s="29"/>
-      <c r="AI42" s="29">
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="25"/>
+      <c r="AB42" s="25"/>
+      <c r="AC42" s="25"/>
+      <c r="AD42" s="25"/>
+      <c r="AE42" s="25"/>
+      <c r="AF42" s="25"/>
+      <c r="AG42" s="25"/>
+      <c r="AH42" s="25"/>
+      <c r="AI42" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ42" s="43"/>
-      <c r="AK42" s="43"/>
-      <c r="AL42" s="29">
+      <c r="AJ42" s="39"/>
+      <c r="AK42" s="39"/>
+      <c r="AL42" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM42" s="43">
+      <c r="AM42" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN42" s="43"/>
-      <c r="AO42" s="57"/>
-      <c r="AP42" s="34">
+      <c r="AN42" s="39"/>
+      <c r="AO42" s="47"/>
+      <c r="AP42" s="30">
         <v>80</v>
       </c>
-      <c r="AQ42" s="41" t="s">
+      <c r="AQ42" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR42" s="58">
+      <c r="AR42" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -57536,63 +57536,63 @@
       <c r="B43" s="17">
         <v>0.24</v>
       </c>
-      <c r="C43" s="40">
+      <c r="C43" s="36">
         <v>2</v>
       </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="29"/>
-      <c r="AB43" s="29"/>
-      <c r="AC43" s="29"/>
-      <c r="AD43" s="29"/>
-      <c r="AE43" s="29"/>
-      <c r="AF43" s="29"/>
-      <c r="AG43" s="29"/>
-      <c r="AH43" s="29"/>
-      <c r="AI43" s="29">
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="25"/>
+      <c r="AD43" s="25"/>
+      <c r="AE43" s="25"/>
+      <c r="AF43" s="25"/>
+      <c r="AG43" s="25"/>
+      <c r="AH43" s="25"/>
+      <c r="AI43" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ43" s="43"/>
-      <c r="AK43" s="43"/>
-      <c r="AL43" s="29">
+      <c r="AJ43" s="39"/>
+      <c r="AK43" s="39"/>
+      <c r="AL43" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM43" s="43">
+      <c r="AM43" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN43" s="43"/>
-      <c r="AO43" s="57"/>
-      <c r="AP43" s="34">
+      <c r="AN43" s="39"/>
+      <c r="AO43" s="47"/>
+      <c r="AP43" s="30">
         <v>80</v>
       </c>
-      <c r="AQ43" s="41" t="s">
+      <c r="AQ43" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR43" s="58">
+      <c r="AR43" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -57604,63 +57604,63 @@
       <c r="B44" s="17">
         <v>0.22</v>
       </c>
-      <c r="C44" s="40">
+      <c r="C44" s="36">
         <v>2</v>
       </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
-      <c r="X44" s="29"/>
-      <c r="Y44" s="29"/>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="29"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="29"/>
-      <c r="AD44" s="29"/>
-      <c r="AE44" s="29"/>
-      <c r="AF44" s="29"/>
-      <c r="AG44" s="29"/>
-      <c r="AH44" s="29"/>
-      <c r="AI44" s="29">
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="25"/>
+      <c r="AC44" s="25"/>
+      <c r="AD44" s="25"/>
+      <c r="AE44" s="25"/>
+      <c r="AF44" s="25"/>
+      <c r="AG44" s="25"/>
+      <c r="AH44" s="25"/>
+      <c r="AI44" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ44" s="43"/>
-      <c r="AK44" s="43"/>
-      <c r="AL44" s="29">
+      <c r="AJ44" s="39"/>
+      <c r="AK44" s="39"/>
+      <c r="AL44" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM44" s="43">
+      <c r="AM44" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN44" s="43"/>
-      <c r="AO44" s="57"/>
-      <c r="AP44" s="34">
+      <c r="AN44" s="39"/>
+      <c r="AO44" s="47"/>
+      <c r="AP44" s="30">
         <v>80</v>
       </c>
-      <c r="AQ44" s="41" t="s">
+      <c r="AQ44" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR44" s="58">
+      <c r="AR44" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -57672,63 +57672,63 @@
       <c r="B45" s="17">
         <v>0.22</v>
       </c>
-      <c r="C45" s="40">
+      <c r="C45" s="36">
         <v>2</v>
       </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="29"/>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="29"/>
-      <c r="AB45" s="29"/>
-      <c r="AC45" s="29"/>
-      <c r="AD45" s="29"/>
-      <c r="AE45" s="29"/>
-      <c r="AF45" s="29"/>
-      <c r="AG45" s="29"/>
-      <c r="AH45" s="29"/>
-      <c r="AI45" s="29">
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="25"/>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="25"/>
+      <c r="AC45" s="25"/>
+      <c r="AD45" s="25"/>
+      <c r="AE45" s="25"/>
+      <c r="AF45" s="25"/>
+      <c r="AG45" s="25"/>
+      <c r="AH45" s="25"/>
+      <c r="AI45" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ45" s="43"/>
-      <c r="AK45" s="43"/>
-      <c r="AL45" s="29">
+      <c r="AJ45" s="39"/>
+      <c r="AK45" s="39"/>
+      <c r="AL45" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM45" s="43">
+      <c r="AM45" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN45" s="43"/>
-      <c r="AO45" s="57"/>
-      <c r="AP45" s="34">
+      <c r="AN45" s="39"/>
+      <c r="AO45" s="47"/>
+      <c r="AP45" s="30">
         <v>80</v>
       </c>
-      <c r="AQ45" s="41" t="s">
+      <c r="AQ45" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR45" s="58">
+      <c r="AR45" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -57740,63 +57740,63 @@
       <c r="B46" s="17">
         <v>0.22</v>
       </c>
-      <c r="C46" s="40">
+      <c r="C46" s="36">
         <v>2</v>
       </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="29"/>
-      <c r="AB46" s="29"/>
-      <c r="AC46" s="29"/>
-      <c r="AD46" s="29"/>
-      <c r="AE46" s="29"/>
-      <c r="AF46" s="29"/>
-      <c r="AG46" s="29"/>
-      <c r="AH46" s="29"/>
-      <c r="AI46" s="29">
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="25"/>
+      <c r="AC46" s="25"/>
+      <c r="AD46" s="25"/>
+      <c r="AE46" s="25"/>
+      <c r="AF46" s="25"/>
+      <c r="AG46" s="25"/>
+      <c r="AH46" s="25"/>
+      <c r="AI46" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ46" s="43"/>
-      <c r="AK46" s="43"/>
-      <c r="AL46" s="29">
+      <c r="AJ46" s="39"/>
+      <c r="AK46" s="39"/>
+      <c r="AL46" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM46" s="43">
+      <c r="AM46" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN46" s="43"/>
-      <c r="AO46" s="57"/>
-      <c r="AP46" s="34">
+      <c r="AN46" s="39"/>
+      <c r="AO46" s="47"/>
+      <c r="AP46" s="30">
         <v>80</v>
       </c>
-      <c r="AQ46" s="41" t="s">
+      <c r="AQ46" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR46" s="58">
+      <c r="AR46" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -57808,63 +57808,63 @@
       <c r="B47" s="17">
         <v>0.22</v>
       </c>
-      <c r="C47" s="40">
+      <c r="C47" s="36">
         <v>2</v>
       </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
-      <c r="AE47" s="29"/>
-      <c r="AF47" s="29"/>
-      <c r="AG47" s="29"/>
-      <c r="AH47" s="29"/>
-      <c r="AI47" s="29">
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="25"/>
+      <c r="AD47" s="25"/>
+      <c r="AE47" s="25"/>
+      <c r="AF47" s="25"/>
+      <c r="AG47" s="25"/>
+      <c r="AH47" s="25"/>
+      <c r="AI47" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ47" s="43"/>
-      <c r="AK47" s="43"/>
-      <c r="AL47" s="29">
+      <c r="AJ47" s="39"/>
+      <c r="AK47" s="39"/>
+      <c r="AL47" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM47" s="43">
+      <c r="AM47" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN47" s="43"/>
-      <c r="AO47" s="57"/>
-      <c r="AP47" s="34">
+      <c r="AN47" s="39"/>
+      <c r="AO47" s="47"/>
+      <c r="AP47" s="30">
         <v>80</v>
       </c>
-      <c r="AQ47" s="41" t="s">
+      <c r="AQ47" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR47" s="58">
+      <c r="AR47" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -57876,63 +57876,63 @@
       <c r="B48" s="18">
         <v>0.2</v>
       </c>
-      <c r="C48" s="39">
+      <c r="C48" s="35">
         <v>2</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="28"/>
-      <c r="U48" s="28"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="28"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="28"/>
-      <c r="AA48" s="28"/>
-      <c r="AB48" s="28"/>
-      <c r="AC48" s="28"/>
-      <c r="AD48" s="28"/>
-      <c r="AE48" s="28"/>
-      <c r="AF48" s="28"/>
-      <c r="AG48" s="28"/>
-      <c r="AH48" s="28"/>
-      <c r="AI48" s="29">
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="24"/>
+      <c r="U48" s="24"/>
+      <c r="V48" s="24"/>
+      <c r="W48" s="24"/>
+      <c r="X48" s="24"/>
+      <c r="Y48" s="24"/>
+      <c r="Z48" s="24"/>
+      <c r="AA48" s="24"/>
+      <c r="AB48" s="24"/>
+      <c r="AC48" s="24"/>
+      <c r="AD48" s="24"/>
+      <c r="AE48" s="24"/>
+      <c r="AF48" s="24"/>
+      <c r="AG48" s="24"/>
+      <c r="AH48" s="24"/>
+      <c r="AI48" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ48" s="43"/>
-      <c r="AK48" s="43"/>
-      <c r="AL48" s="29">
+      <c r="AJ48" s="39"/>
+      <c r="AK48" s="39"/>
+      <c r="AL48" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM48" s="43">
+      <c r="AM48" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN48" s="43"/>
-      <c r="AO48" s="57"/>
-      <c r="AP48" s="34">
+      <c r="AN48" s="39"/>
+      <c r="AO48" s="47"/>
+      <c r="AP48" s="30">
         <v>100</v>
       </c>
-      <c r="AQ48" s="41" t="s">
+      <c r="AQ48" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR48" s="58">
+      <c r="AR48" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -57944,63 +57944,63 @@
       <c r="B49" s="18">
         <v>0.2</v>
       </c>
-      <c r="C49" s="39">
+      <c r="C49" s="35">
         <v>2</v>
       </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="28"/>
-      <c r="V49" s="28"/>
-      <c r="W49" s="28"/>
-      <c r="X49" s="28"/>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="28"/>
-      <c r="AA49" s="28"/>
-      <c r="AB49" s="28"/>
-      <c r="AC49" s="28"/>
-      <c r="AD49" s="28"/>
-      <c r="AE49" s="28"/>
-      <c r="AF49" s="28"/>
-      <c r="AG49" s="28"/>
-      <c r="AH49" s="28"/>
-      <c r="AI49" s="29">
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="24"/>
+      <c r="U49" s="24"/>
+      <c r="V49" s="24"/>
+      <c r="W49" s="24"/>
+      <c r="X49" s="24"/>
+      <c r="Y49" s="24"/>
+      <c r="Z49" s="24"/>
+      <c r="AA49" s="24"/>
+      <c r="AB49" s="24"/>
+      <c r="AC49" s="24"/>
+      <c r="AD49" s="24"/>
+      <c r="AE49" s="24"/>
+      <c r="AF49" s="24"/>
+      <c r="AG49" s="24"/>
+      <c r="AH49" s="24"/>
+      <c r="AI49" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ49" s="43"/>
-      <c r="AK49" s="43"/>
-      <c r="AL49" s="29">
+      <c r="AJ49" s="39"/>
+      <c r="AK49" s="39"/>
+      <c r="AL49" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM49" s="43">
+      <c r="AM49" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN49" s="43"/>
-      <c r="AO49" s="57"/>
-      <c r="AP49" s="34">
+      <c r="AN49" s="39"/>
+      <c r="AO49" s="47"/>
+      <c r="AP49" s="30">
         <v>100</v>
       </c>
-      <c r="AQ49" s="41" t="s">
+      <c r="AQ49" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR49" s="58">
+      <c r="AR49" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -58012,63 +58012,63 @@
       <c r="B50" s="18">
         <v>0.2</v>
       </c>
-      <c r="C50" s="39">
+      <c r="C50" s="35">
         <v>2</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="28"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="28"/>
-      <c r="X50" s="28"/>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="28"/>
-      <c r="AA50" s="28"/>
-      <c r="AB50" s="28"/>
-      <c r="AC50" s="28"/>
-      <c r="AD50" s="28"/>
-      <c r="AE50" s="28"/>
-      <c r="AF50" s="28"/>
-      <c r="AG50" s="28"/>
-      <c r="AH50" s="28"/>
-      <c r="AI50" s="29">
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="24"/>
+      <c r="U50" s="24"/>
+      <c r="V50" s="24"/>
+      <c r="W50" s="24"/>
+      <c r="X50" s="24"/>
+      <c r="Y50" s="24"/>
+      <c r="Z50" s="24"/>
+      <c r="AA50" s="24"/>
+      <c r="AB50" s="24"/>
+      <c r="AC50" s="24"/>
+      <c r="AD50" s="24"/>
+      <c r="AE50" s="24"/>
+      <c r="AF50" s="24"/>
+      <c r="AG50" s="24"/>
+      <c r="AH50" s="24"/>
+      <c r="AI50" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ50" s="43"/>
-      <c r="AK50" s="43"/>
-      <c r="AL50" s="29">
+      <c r="AJ50" s="39"/>
+      <c r="AK50" s="39"/>
+      <c r="AL50" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM50" s="43">
+      <c r="AM50" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN50" s="43"/>
-      <c r="AO50" s="57"/>
-      <c r="AP50" s="34">
+      <c r="AN50" s="39"/>
+      <c r="AO50" s="47"/>
+      <c r="AP50" s="30">
         <v>100</v>
       </c>
-      <c r="AQ50" s="41" t="s">
+      <c r="AQ50" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR50" s="58">
+      <c r="AR50" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -58080,63 +58080,63 @@
       <c r="B51" s="18">
         <v>0.2</v>
       </c>
-      <c r="C51" s="39">
+      <c r="C51" s="35">
         <v>2</v>
       </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="28"/>
-      <c r="U51" s="28"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="28"/>
-      <c r="X51" s="28"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="28"/>
-      <c r="AA51" s="28"/>
-      <c r="AB51" s="28"/>
-      <c r="AC51" s="28"/>
-      <c r="AD51" s="28"/>
-      <c r="AE51" s="28"/>
-      <c r="AF51" s="28"/>
-      <c r="AG51" s="28"/>
-      <c r="AH51" s="28"/>
-      <c r="AI51" s="29">
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="24"/>
+      <c r="U51" s="24"/>
+      <c r="V51" s="24"/>
+      <c r="W51" s="24"/>
+      <c r="X51" s="24"/>
+      <c r="Y51" s="24"/>
+      <c r="Z51" s="24"/>
+      <c r="AA51" s="24"/>
+      <c r="AB51" s="24"/>
+      <c r="AC51" s="24"/>
+      <c r="AD51" s="24"/>
+      <c r="AE51" s="24"/>
+      <c r="AF51" s="24"/>
+      <c r="AG51" s="24"/>
+      <c r="AH51" s="24"/>
+      <c r="AI51" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ51" s="43"/>
-      <c r="AK51" s="43"/>
-      <c r="AL51" s="29">
+      <c r="AJ51" s="39"/>
+      <c r="AK51" s="39"/>
+      <c r="AL51" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM51" s="43">
+      <c r="AM51" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN51" s="43"/>
-      <c r="AO51" s="57"/>
-      <c r="AP51" s="34">
+      <c r="AN51" s="39"/>
+      <c r="AO51" s="47"/>
+      <c r="AP51" s="30">
         <v>100</v>
       </c>
-      <c r="AQ51" s="41" t="s">
+      <c r="AQ51" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR51" s="58">
+      <c r="AR51" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -58148,63 +58148,63 @@
       <c r="B52" s="18">
         <v>0.1</v>
       </c>
-      <c r="C52" s="39">
+      <c r="C52" s="35">
         <v>2</v>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="28"/>
-      <c r="S52" s="28"/>
-      <c r="T52" s="28"/>
-      <c r="U52" s="28"/>
-      <c r="V52" s="28"/>
-      <c r="W52" s="28"/>
-      <c r="X52" s="28"/>
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="28"/>
-      <c r="AA52" s="28"/>
-      <c r="AB52" s="28"/>
-      <c r="AC52" s="28"/>
-      <c r="AD52" s="28"/>
-      <c r="AE52" s="28"/>
-      <c r="AF52" s="28"/>
-      <c r="AG52" s="28"/>
-      <c r="AH52" s="28"/>
-      <c r="AI52" s="29">
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="24"/>
+      <c r="U52" s="24"/>
+      <c r="V52" s="24"/>
+      <c r="W52" s="24"/>
+      <c r="X52" s="24"/>
+      <c r="Y52" s="24"/>
+      <c r="Z52" s="24"/>
+      <c r="AA52" s="24"/>
+      <c r="AB52" s="24"/>
+      <c r="AC52" s="24"/>
+      <c r="AD52" s="24"/>
+      <c r="AE52" s="24"/>
+      <c r="AF52" s="24"/>
+      <c r="AG52" s="24"/>
+      <c r="AH52" s="24"/>
+      <c r="AI52" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ52" s="43"/>
-      <c r="AK52" s="43"/>
-      <c r="AL52" s="29">
+      <c r="AJ52" s="39"/>
+      <c r="AK52" s="39"/>
+      <c r="AL52" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM52" s="43">
+      <c r="AM52" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN52" s="43"/>
-      <c r="AO52" s="57"/>
-      <c r="AP52" s="34">
+      <c r="AN52" s="39"/>
+      <c r="AO52" s="47"/>
+      <c r="AP52" s="30">
         <v>100</v>
       </c>
-      <c r="AQ52" s="41" t="s">
+      <c r="AQ52" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR52" s="58">
+      <c r="AR52" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -58216,63 +58216,63 @@
       <c r="B53" s="18">
         <v>0.1</v>
       </c>
-      <c r="C53" s="39">
+      <c r="C53" s="35">
         <v>2</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="28"/>
-      <c r="S53" s="28"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="28"/>
-      <c r="V53" s="28"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="28"/>
-      <c r="Y53" s="28"/>
-      <c r="Z53" s="28"/>
-      <c r="AA53" s="28"/>
-      <c r="AB53" s="28"/>
-      <c r="AC53" s="28"/>
-      <c r="AD53" s="28"/>
-      <c r="AE53" s="28"/>
-      <c r="AF53" s="28"/>
-      <c r="AG53" s="28"/>
-      <c r="AH53" s="28"/>
-      <c r="AI53" s="29">
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="24"/>
+      <c r="U53" s="24"/>
+      <c r="V53" s="24"/>
+      <c r="W53" s="24"/>
+      <c r="X53" s="24"/>
+      <c r="Y53" s="24"/>
+      <c r="Z53" s="24"/>
+      <c r="AA53" s="24"/>
+      <c r="AB53" s="24"/>
+      <c r="AC53" s="24"/>
+      <c r="AD53" s="24"/>
+      <c r="AE53" s="24"/>
+      <c r="AF53" s="24"/>
+      <c r="AG53" s="24"/>
+      <c r="AH53" s="24"/>
+      <c r="AI53" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ53" s="43"/>
-      <c r="AK53" s="43"/>
-      <c r="AL53" s="29">
+      <c r="AJ53" s="39"/>
+      <c r="AK53" s="39"/>
+      <c r="AL53" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM53" s="43">
+      <c r="AM53" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN53" s="43"/>
-      <c r="AO53" s="57"/>
-      <c r="AP53" s="34">
+      <c r="AN53" s="39"/>
+      <c r="AO53" s="47"/>
+      <c r="AP53" s="30">
         <v>100</v>
       </c>
-      <c r="AQ53" s="41" t="s">
+      <c r="AQ53" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR53" s="58">
+      <c r="AR53" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -58284,63 +58284,63 @@
       <c r="B54" s="18">
         <v>0.1</v>
       </c>
-      <c r="C54" s="39">
+      <c r="C54" s="35">
         <v>2</v>
       </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="28"/>
-      <c r="S54" s="28"/>
-      <c r="T54" s="28"/>
-      <c r="U54" s="28"/>
-      <c r="V54" s="28"/>
-      <c r="W54" s="28"/>
-      <c r="X54" s="28"/>
-      <c r="Y54" s="28"/>
-      <c r="Z54" s="28"/>
-      <c r="AA54" s="28"/>
-      <c r="AB54" s="28"/>
-      <c r="AC54" s="28"/>
-      <c r="AD54" s="28"/>
-      <c r="AE54" s="28"/>
-      <c r="AF54" s="28"/>
-      <c r="AG54" s="28"/>
-      <c r="AH54" s="28"/>
-      <c r="AI54" s="29">
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="24"/>
+      <c r="T54" s="24"/>
+      <c r="U54" s="24"/>
+      <c r="V54" s="24"/>
+      <c r="W54" s="24"/>
+      <c r="X54" s="24"/>
+      <c r="Y54" s="24"/>
+      <c r="Z54" s="24"/>
+      <c r="AA54" s="24"/>
+      <c r="AB54" s="24"/>
+      <c r="AC54" s="24"/>
+      <c r="AD54" s="24"/>
+      <c r="AE54" s="24"/>
+      <c r="AF54" s="24"/>
+      <c r="AG54" s="24"/>
+      <c r="AH54" s="24"/>
+      <c r="AI54" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ54" s="43"/>
-      <c r="AK54" s="43"/>
-      <c r="AL54" s="29">
+      <c r="AJ54" s="39"/>
+      <c r="AK54" s="39"/>
+      <c r="AL54" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM54" s="43">
+      <c r="AM54" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN54" s="43"/>
-      <c r="AO54" s="57"/>
-      <c r="AP54" s="34">
+      <c r="AN54" s="39"/>
+      <c r="AO54" s="47"/>
+      <c r="AP54" s="30">
         <v>100</v>
       </c>
-      <c r="AQ54" s="41" t="s">
+      <c r="AQ54" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR54" s="58">
+      <c r="AR54" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -58352,63 +58352,63 @@
       <c r="B55" s="18">
         <v>0.1</v>
       </c>
-      <c r="C55" s="39">
+      <c r="C55" s="35">
         <v>2</v>
       </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="28"/>
-      <c r="S55" s="28"/>
-      <c r="T55" s="28"/>
-      <c r="U55" s="28"/>
-      <c r="V55" s="28"/>
-      <c r="W55" s="28"/>
-      <c r="X55" s="28"/>
-      <c r="Y55" s="28"/>
-      <c r="Z55" s="28"/>
-      <c r="AA55" s="28"/>
-      <c r="AB55" s="28"/>
-      <c r="AC55" s="28"/>
-      <c r="AD55" s="28"/>
-      <c r="AE55" s="28"/>
-      <c r="AF55" s="28"/>
-      <c r="AG55" s="28"/>
-      <c r="AH55" s="28"/>
-      <c r="AI55" s="29">
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="24"/>
+      <c r="T55" s="24"/>
+      <c r="U55" s="24"/>
+      <c r="V55" s="24"/>
+      <c r="W55" s="24"/>
+      <c r="X55" s="24"/>
+      <c r="Y55" s="24"/>
+      <c r="Z55" s="24"/>
+      <c r="AA55" s="24"/>
+      <c r="AB55" s="24"/>
+      <c r="AC55" s="24"/>
+      <c r="AD55" s="24"/>
+      <c r="AE55" s="24"/>
+      <c r="AF55" s="24"/>
+      <c r="AG55" s="24"/>
+      <c r="AH55" s="24"/>
+      <c r="AI55" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ55" s="43"/>
-      <c r="AK55" s="43"/>
-      <c r="AL55" s="29">
+      <c r="AJ55" s="39"/>
+      <c r="AK55" s="39"/>
+      <c r="AL55" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM55" s="43">
+      <c r="AM55" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN55" s="43"/>
-      <c r="AO55" s="57"/>
-      <c r="AP55" s="34">
+      <c r="AN55" s="39"/>
+      <c r="AO55" s="47"/>
+      <c r="AP55" s="30">
         <v>100</v>
       </c>
-      <c r="AQ55" s="41" t="s">
+      <c r="AQ55" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR55" s="58">
+      <c r="AR55" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -58420,63 +58420,63 @@
       <c r="B56" s="18">
         <v>0.16</v>
       </c>
-      <c r="C56" s="39">
+      <c r="C56" s="35">
         <v>2</v>
       </c>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="28"/>
-      <c r="S56" s="28"/>
-      <c r="T56" s="28"/>
-      <c r="U56" s="28"/>
-      <c r="V56" s="28"/>
-      <c r="W56" s="28"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="28"/>
-      <c r="Z56" s="28"/>
-      <c r="AA56" s="28"/>
-      <c r="AB56" s="28"/>
-      <c r="AC56" s="28"/>
-      <c r="AD56" s="28"/>
-      <c r="AE56" s="28"/>
-      <c r="AF56" s="28"/>
-      <c r="AG56" s="28"/>
-      <c r="AH56" s="28"/>
-      <c r="AI56" s="29">
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="24"/>
+      <c r="T56" s="24"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+      <c r="X56" s="24"/>
+      <c r="Y56" s="24"/>
+      <c r="Z56" s="24"/>
+      <c r="AA56" s="24"/>
+      <c r="AB56" s="24"/>
+      <c r="AC56" s="24"/>
+      <c r="AD56" s="24"/>
+      <c r="AE56" s="24"/>
+      <c r="AF56" s="24"/>
+      <c r="AG56" s="24"/>
+      <c r="AH56" s="24"/>
+      <c r="AI56" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ56" s="43"/>
-      <c r="AK56" s="43"/>
-      <c r="AL56" s="29">
+      <c r="AJ56" s="39"/>
+      <c r="AK56" s="39"/>
+      <c r="AL56" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM56" s="43">
+      <c r="AM56" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN56" s="43"/>
-      <c r="AO56" s="57"/>
-      <c r="AP56" s="34">
+      <c r="AN56" s="39"/>
+      <c r="AO56" s="47"/>
+      <c r="AP56" s="30">
         <v>100</v>
       </c>
-      <c r="AQ56" s="41" t="s">
+      <c r="AQ56" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR56" s="58">
+      <c r="AR56" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -58488,63 +58488,63 @@
       <c r="B57" s="18">
         <v>0.16</v>
       </c>
-      <c r="C57" s="39">
+      <c r="C57" s="35">
         <v>2</v>
       </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="28"/>
-      <c r="R57" s="28"/>
-      <c r="S57" s="28"/>
-      <c r="T57" s="28"/>
-      <c r="U57" s="28"/>
-      <c r="V57" s="28"/>
-      <c r="W57" s="28"/>
-      <c r="X57" s="28"/>
-      <c r="Y57" s="28"/>
-      <c r="Z57" s="28"/>
-      <c r="AA57" s="28"/>
-      <c r="AB57" s="28"/>
-      <c r="AC57" s="28"/>
-      <c r="AD57" s="28"/>
-      <c r="AE57" s="28"/>
-      <c r="AF57" s="28"/>
-      <c r="AG57" s="28"/>
-      <c r="AH57" s="28"/>
-      <c r="AI57" s="29">
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24"/>
+      <c r="S57" s="24"/>
+      <c r="T57" s="24"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+      <c r="X57" s="24"/>
+      <c r="Y57" s="24"/>
+      <c r="Z57" s="24"/>
+      <c r="AA57" s="24"/>
+      <c r="AB57" s="24"/>
+      <c r="AC57" s="24"/>
+      <c r="AD57" s="24"/>
+      <c r="AE57" s="24"/>
+      <c r="AF57" s="24"/>
+      <c r="AG57" s="24"/>
+      <c r="AH57" s="24"/>
+      <c r="AI57" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ57" s="43"/>
-      <c r="AK57" s="43"/>
-      <c r="AL57" s="29">
+      <c r="AJ57" s="39"/>
+      <c r="AK57" s="39"/>
+      <c r="AL57" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM57" s="43">
+      <c r="AM57" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN57" s="43"/>
-      <c r="AO57" s="57"/>
-      <c r="AP57" s="34">
+      <c r="AN57" s="39"/>
+      <c r="AO57" s="47"/>
+      <c r="AP57" s="30">
         <v>100</v>
       </c>
-      <c r="AQ57" s="41" t="s">
+      <c r="AQ57" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR57" s="58">
+      <c r="AR57" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -58556,63 +58556,63 @@
       <c r="B58" s="18">
         <v>0.16</v>
       </c>
-      <c r="C58" s="39">
+      <c r="C58" s="35">
         <v>2</v>
       </c>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
-      <c r="P58" s="28"/>
-      <c r="Q58" s="28"/>
-      <c r="R58" s="28"/>
-      <c r="S58" s="28"/>
-      <c r="T58" s="28"/>
-      <c r="U58" s="28"/>
-      <c r="V58" s="28"/>
-      <c r="W58" s="28"/>
-      <c r="X58" s="28"/>
-      <c r="Y58" s="28"/>
-      <c r="Z58" s="28"/>
-      <c r="AA58" s="28"/>
-      <c r="AB58" s="28"/>
-      <c r="AC58" s="28"/>
-      <c r="AD58" s="28"/>
-      <c r="AE58" s="28"/>
-      <c r="AF58" s="28"/>
-      <c r="AG58" s="28"/>
-      <c r="AH58" s="28"/>
-      <c r="AI58" s="29">
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="24"/>
+      <c r="T58" s="24"/>
+      <c r="U58" s="24"/>
+      <c r="V58" s="24"/>
+      <c r="W58" s="24"/>
+      <c r="X58" s="24"/>
+      <c r="Y58" s="24"/>
+      <c r="Z58" s="24"/>
+      <c r="AA58" s="24"/>
+      <c r="AB58" s="24"/>
+      <c r="AC58" s="24"/>
+      <c r="AD58" s="24"/>
+      <c r="AE58" s="24"/>
+      <c r="AF58" s="24"/>
+      <c r="AG58" s="24"/>
+      <c r="AH58" s="24"/>
+      <c r="AI58" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ58" s="43"/>
-      <c r="AK58" s="43"/>
-      <c r="AL58" s="29">
+      <c r="AJ58" s="39"/>
+      <c r="AK58" s="39"/>
+      <c r="AL58" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM58" s="43">
+      <c r="AM58" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN58" s="43"/>
-      <c r="AO58" s="57"/>
-      <c r="AP58" s="34">
+      <c r="AN58" s="39"/>
+      <c r="AO58" s="47"/>
+      <c r="AP58" s="30">
         <v>100</v>
       </c>
-      <c r="AQ58" s="41" t="s">
+      <c r="AQ58" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AR58" s="58">
+      <c r="AR58" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -58624,71 +58624,71 @@
       <c r="B59" s="18">
         <v>0.16</v>
       </c>
-      <c r="C59" s="39">
+      <c r="C59" s="35">
         <v>2</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="30"/>
-      <c r="T59" s="30"/>
-      <c r="U59" s="30"/>
-      <c r="V59" s="30"/>
-      <c r="W59" s="30"/>
-      <c r="X59" s="30"/>
-      <c r="Y59" s="30"/>
-      <c r="Z59" s="30"/>
-      <c r="AA59" s="30"/>
-      <c r="AB59" s="30"/>
-      <c r="AC59" s="30"/>
-      <c r="AD59" s="30"/>
-      <c r="AE59" s="30"/>
-      <c r="AF59" s="30"/>
-      <c r="AG59" s="30"/>
-      <c r="AH59" s="30"/>
-      <c r="AI59" s="29">
+      <c r="D59" s="24"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="26"/>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="26"/>
+      <c r="S59" s="26"/>
+      <c r="T59" s="26"/>
+      <c r="U59" s="26"/>
+      <c r="V59" s="26"/>
+      <c r="W59" s="26"/>
+      <c r="X59" s="26"/>
+      <c r="Y59" s="26"/>
+      <c r="Z59" s="26"/>
+      <c r="AA59" s="26"/>
+      <c r="AB59" s="26"/>
+      <c r="AC59" s="26"/>
+      <c r="AD59" s="26"/>
+      <c r="AE59" s="26"/>
+      <c r="AF59" s="26"/>
+      <c r="AG59" s="26"/>
+      <c r="AH59" s="26"/>
+      <c r="AI59" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ59" s="59"/>
-      <c r="AK59" s="59"/>
-      <c r="AL59" s="29">
+      <c r="AJ59" s="49"/>
+      <c r="AK59" s="49"/>
+      <c r="AL59" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM59" s="43">
+      <c r="AM59" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN59" s="59"/>
-      <c r="AO59" s="60"/>
-      <c r="AP59" s="34">
+      <c r="AN59" s="49"/>
+      <c r="AO59" s="50"/>
+      <c r="AP59" s="30">
         <v>100</v>
       </c>
-      <c r="AQ59" s="42" t="s">
+      <c r="AQ59" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="AR59" s="58">
+      <c r="AR59" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:45" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="61"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="52"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="42"/>
       <c r="D60" s="15">
         <f t="shared" ref="D60:AG60" si="4">COUNTA(C8:C59)</f>
         <v>52</v>
@@ -58829,276 +58829,276 @@
         <f t="shared" si="1"/>
         <v>405</v>
       </c>
-      <c r="AM60" s="59">
+      <c r="AM60" s="49">
         <f t="shared" si="2"/>
         <v>540.00000000000068</v>
       </c>
-      <c r="AN60" s="59"/>
-      <c r="AO60" s="43"/>
-      <c r="AP60" s="62"/>
-      <c r="AQ60" s="43"/>
-      <c r="AR60" s="63">
+      <c r="AN60" s="49"/>
+      <c r="AO60" s="39"/>
+      <c r="AP60" s="52"/>
+      <c r="AQ60" s="39"/>
+      <c r="AR60" s="53">
         <f>SUM(AR8:AR59)</f>
-        <v>35640</v>
+        <v>620825.80645161367</v>
       </c>
     </row>
     <row r="61" spans="1:45" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="53"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="53"/>
-      <c r="L61" s="53"/>
-      <c r="M61" s="53"/>
-      <c r="N61" s="53"/>
-      <c r="O61" s="53"/>
-      <c r="P61" s="53"/>
-      <c r="Q61" s="53"/>
-      <c r="R61" s="53"/>
-      <c r="S61" s="53"/>
-      <c r="T61" s="53"/>
-      <c r="U61" s="53"/>
-      <c r="V61" s="53"/>
-      <c r="W61" s="53"/>
-      <c r="X61" s="53"/>
-      <c r="Y61" s="53"/>
-      <c r="Z61" s="53"/>
-      <c r="AA61" s="53"/>
-      <c r="AB61" s="53"/>
-      <c r="AC61" s="53"/>
-      <c r="AD61" s="53"/>
-      <c r="AE61" s="53"/>
-      <c r="AF61" s="53"/>
-      <c r="AG61" s="53"/>
-      <c r="AH61" s="53"/>
-      <c r="AI61" s="53"/>
-      <c r="AJ61" s="53"/>
-      <c r="AK61" s="53"/>
-      <c r="AL61" s="53"/>
-      <c r="AM61" s="53"/>
-      <c r="AN61" s="54"/>
-      <c r="AO61" s="44" t="s">
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
+      <c r="Q61" s="43"/>
+      <c r="R61" s="43"/>
+      <c r="S61" s="43"/>
+      <c r="T61" s="43"/>
+      <c r="U61" s="43"/>
+      <c r="V61" s="43"/>
+      <c r="W61" s="43"/>
+      <c r="X61" s="43"/>
+      <c r="Y61" s="43"/>
+      <c r="Z61" s="43"/>
+      <c r="AA61" s="43"/>
+      <c r="AB61" s="43"/>
+      <c r="AC61" s="43"/>
+      <c r="AD61" s="43"/>
+      <c r="AE61" s="43"/>
+      <c r="AF61" s="43"/>
+      <c r="AG61" s="43"/>
+      <c r="AH61" s="43"/>
+      <c r="AI61" s="43"/>
+      <c r="AJ61" s="43"/>
+      <c r="AK61" s="43"/>
+      <c r="AL61" s="43"/>
+      <c r="AM61" s="43"/>
+      <c r="AN61" s="44"/>
+      <c r="AO61" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="AP61" s="44"/>
-      <c r="AQ61" s="45"/>
-      <c r="AR61" s="64">
+      <c r="AP61" s="58"/>
+      <c r="AQ61" s="59"/>
+      <c r="AR61" s="54">
         <f>SUM(AR8:AR59)</f>
-        <v>35640</v>
+        <v>620825.80645161367</v>
       </c>
       <c r="AS61" s="2"/>
     </row>
     <row r="62" spans="1:45" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="50"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="50"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="50"/>
-      <c r="L62" s="50"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="50"/>
-      <c r="O62" s="50"/>
-      <c r="P62" s="50"/>
-      <c r="Q62" s="50"/>
-      <c r="R62" s="50"/>
-      <c r="S62" s="50"/>
-      <c r="T62" s="50"/>
-      <c r="U62" s="50"/>
-      <c r="V62" s="50"/>
-      <c r="W62" s="50"/>
-      <c r="X62" s="50"/>
-      <c r="Y62" s="50"/>
-      <c r="Z62" s="50"/>
-      <c r="AA62" s="50"/>
-      <c r="AB62" s="50"/>
-      <c r="AC62" s="50"/>
-      <c r="AD62" s="50"/>
-      <c r="AE62" s="50"/>
-      <c r="AF62" s="50"/>
-      <c r="AG62" s="50"/>
-      <c r="AH62" s="50"/>
-      <c r="AI62" s="50"/>
-      <c r="AJ62" s="50"/>
-      <c r="AK62" s="50"/>
-      <c r="AL62" s="50"/>
-      <c r="AM62" s="50"/>
-      <c r="AN62" s="46" t="s">
+      <c r="A62" s="40"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="40"/>
+      <c r="M62" s="40"/>
+      <c r="N62" s="40"/>
+      <c r="O62" s="40"/>
+      <c r="P62" s="40"/>
+      <c r="Q62" s="40"/>
+      <c r="R62" s="40"/>
+      <c r="S62" s="40"/>
+      <c r="T62" s="40"/>
+      <c r="U62" s="40"/>
+      <c r="V62" s="40"/>
+      <c r="W62" s="40"/>
+      <c r="X62" s="40"/>
+      <c r="Y62" s="40"/>
+      <c r="Z62" s="40"/>
+      <c r="AA62" s="40"/>
+      <c r="AB62" s="40"/>
+      <c r="AC62" s="40"/>
+      <c r="AD62" s="40"/>
+      <c r="AE62" s="40"/>
+      <c r="AF62" s="40"/>
+      <c r="AG62" s="40"/>
+      <c r="AH62" s="40"/>
+      <c r="AI62" s="40"/>
+      <c r="AJ62" s="40"/>
+      <c r="AK62" s="40"/>
+      <c r="AL62" s="40"/>
+      <c r="AM62" s="40"/>
+      <c r="AN62" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="AO62" s="46"/>
-      <c r="AP62" s="46"/>
-      <c r="AQ62" s="47"/>
-      <c r="AR62" s="29">
+      <c r="AO62" s="60"/>
+      <c r="AP62" s="60"/>
+      <c r="AQ62" s="62"/>
+      <c r="AR62" s="25">
         <f>(AR61*10/100)</f>
-        <v>3564</v>
+        <v>62082.580645161361</v>
       </c>
       <c r="AS62" s="2"/>
     </row>
     <row r="63" spans="1:45" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="50"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="50"/>
-      <c r="L63" s="50"/>
-      <c r="M63" s="50"/>
-      <c r="N63" s="50"/>
-      <c r="O63" s="50"/>
-      <c r="P63" s="50"/>
-      <c r="Q63" s="50"/>
-      <c r="R63" s="50"/>
-      <c r="S63" s="50"/>
-      <c r="T63" s="50"/>
-      <c r="U63" s="50"/>
-      <c r="V63" s="50"/>
-      <c r="W63" s="50"/>
-      <c r="X63" s="50"/>
-      <c r="Y63" s="50"/>
-      <c r="Z63" s="50"/>
-      <c r="AA63" s="50"/>
-      <c r="AB63" s="50"/>
-      <c r="AC63" s="50"/>
-      <c r="AD63" s="50"/>
-      <c r="AE63" s="50"/>
-      <c r="AF63" s="50"/>
-      <c r="AG63" s="50"/>
-      <c r="AH63" s="50"/>
-      <c r="AI63" s="50"/>
-      <c r="AJ63" s="50"/>
-      <c r="AK63" s="50"/>
-      <c r="AL63" s="50"/>
-      <c r="AM63" s="50"/>
-      <c r="AN63" s="46" t="s">
+      <c r="A63" s="40"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="40"/>
+      <c r="S63" s="40"/>
+      <c r="T63" s="40"/>
+      <c r="U63" s="40"/>
+      <c r="V63" s="40"/>
+      <c r="W63" s="40"/>
+      <c r="X63" s="40"/>
+      <c r="Y63" s="40"/>
+      <c r="Z63" s="40"/>
+      <c r="AA63" s="40"/>
+      <c r="AB63" s="40"/>
+      <c r="AC63" s="40"/>
+      <c r="AD63" s="40"/>
+      <c r="AE63" s="40"/>
+      <c r="AF63" s="40"/>
+      <c r="AG63" s="40"/>
+      <c r="AH63" s="40"/>
+      <c r="AI63" s="40"/>
+      <c r="AJ63" s="40"/>
+      <c r="AK63" s="40"/>
+      <c r="AL63" s="40"/>
+      <c r="AM63" s="40"/>
+      <c r="AN63" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="AO63" s="48"/>
-      <c r="AP63" s="48"/>
-      <c r="AQ63" s="48"/>
-      <c r="AR63" s="65">
+      <c r="AO63" s="61"/>
+      <c r="AP63" s="61"/>
+      <c r="AQ63" s="61"/>
+      <c r="AR63" s="55">
         <f>(AR61-AR62)</f>
-        <v>32076</v>
+        <v>558743.22580645233</v>
       </c>
       <c r="AS63" s="2"/>
     </row>
     <row r="64" spans="1:45" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="50"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50"/>
-      <c r="L64" s="50"/>
-      <c r="M64" s="50"/>
-      <c r="N64" s="50"/>
-      <c r="O64" s="50"/>
-      <c r="P64" s="50"/>
-      <c r="Q64" s="50"/>
-      <c r="R64" s="50"/>
-      <c r="S64" s="50"/>
-      <c r="T64" s="50"/>
-      <c r="U64" s="50"/>
-      <c r="V64" s="50"/>
-      <c r="W64" s="50"/>
-      <c r="X64" s="50"/>
-      <c r="Y64" s="50"/>
-      <c r="Z64" s="50"/>
-      <c r="AA64" s="50"/>
-      <c r="AB64" s="50"/>
-      <c r="AC64" s="50"/>
-      <c r="AD64" s="50"/>
-      <c r="AE64" s="50"/>
-      <c r="AF64" s="50"/>
-      <c r="AG64" s="50"/>
-      <c r="AH64" s="50"/>
-      <c r="AI64" s="50"/>
-      <c r="AJ64" s="50"/>
-      <c r="AK64" s="50"/>
-      <c r="AL64" s="50"/>
-      <c r="AM64" s="50"/>
-      <c r="AN64" s="51"/>
-      <c r="AO64" s="46" t="s">
+      <c r="A64" s="40"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="40"/>
+      <c r="N64" s="40"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="40"/>
+      <c r="Q64" s="40"/>
+      <c r="R64" s="40"/>
+      <c r="S64" s="40"/>
+      <c r="T64" s="40"/>
+      <c r="U64" s="40"/>
+      <c r="V64" s="40"/>
+      <c r="W64" s="40"/>
+      <c r="X64" s="40"/>
+      <c r="Y64" s="40"/>
+      <c r="Z64" s="40"/>
+      <c r="AA64" s="40"/>
+      <c r="AB64" s="40"/>
+      <c r="AC64" s="40"/>
+      <c r="AD64" s="40"/>
+      <c r="AE64" s="40"/>
+      <c r="AF64" s="40"/>
+      <c r="AG64" s="40"/>
+      <c r="AH64" s="40"/>
+      <c r="AI64" s="40"/>
+      <c r="AJ64" s="40"/>
+      <c r="AK64" s="40"/>
+      <c r="AL64" s="40"/>
+      <c r="AM64" s="40"/>
+      <c r="AN64" s="41"/>
+      <c r="AO64" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="AP64" s="48"/>
-      <c r="AQ64" s="48"/>
-      <c r="AR64" s="65">
+      <c r="AP64" s="61"/>
+      <c r="AQ64" s="61"/>
+      <c r="AR64" s="55">
         <f>(AR63*20/100)</f>
-        <v>6415.2</v>
+        <v>111748.64516129046</v>
       </c>
       <c r="AS64" s="2"/>
     </row>
     <row r="65" spans="1:45" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="55"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="55"/>
-      <c r="M65" s="55"/>
-      <c r="N65" s="55"/>
-      <c r="O65" s="55"/>
-      <c r="P65" s="55"/>
-      <c r="Q65" s="55"/>
-      <c r="R65" s="55"/>
-      <c r="S65" s="55"/>
-      <c r="T65" s="55"/>
-      <c r="U65" s="55"/>
-      <c r="V65" s="55"/>
-      <c r="W65" s="55"/>
-      <c r="X65" s="55"/>
-      <c r="Y65" s="55"/>
-      <c r="Z65" s="55"/>
-      <c r="AA65" s="55"/>
-      <c r="AB65" s="55"/>
-      <c r="AC65" s="55"/>
-      <c r="AD65" s="55"/>
-      <c r="AE65" s="55"/>
-      <c r="AF65" s="55"/>
-      <c r="AG65" s="55"/>
-      <c r="AH65" s="55"/>
-      <c r="AI65" s="55"/>
-      <c r="AJ65" s="55"/>
-      <c r="AK65" s="55"/>
-      <c r="AL65" s="55"/>
-      <c r="AM65" s="55"/>
-      <c r="AN65" s="56"/>
-      <c r="AO65" s="49" t="s">
+      <c r="A65" s="45"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="45"/>
+      <c r="L65" s="45"/>
+      <c r="M65" s="45"/>
+      <c r="N65" s="45"/>
+      <c r="O65" s="45"/>
+      <c r="P65" s="45"/>
+      <c r="Q65" s="45"/>
+      <c r="R65" s="45"/>
+      <c r="S65" s="45"/>
+      <c r="T65" s="45"/>
+      <c r="U65" s="45"/>
+      <c r="V65" s="45"/>
+      <c r="W65" s="45"/>
+      <c r="X65" s="45"/>
+      <c r="Y65" s="45"/>
+      <c r="Z65" s="45"/>
+      <c r="AA65" s="45"/>
+      <c r="AB65" s="45"/>
+      <c r="AC65" s="45"/>
+      <c r="AD65" s="45"/>
+      <c r="AE65" s="45"/>
+      <c r="AF65" s="45"/>
+      <c r="AG65" s="45"/>
+      <c r="AH65" s="45"/>
+      <c r="AI65" s="45"/>
+      <c r="AJ65" s="45"/>
+      <c r="AK65" s="45"/>
+      <c r="AL65" s="45"/>
+      <c r="AM65" s="45"/>
+      <c r="AN65" s="46"/>
+      <c r="AO65" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="AP65" s="49"/>
-      <c r="AQ65" s="49"/>
-      <c r="AR65" s="66">
+      <c r="AP65" s="63"/>
+      <c r="AQ65" s="63"/>
+      <c r="AR65" s="56">
         <f>SUM(AR63:AR64)</f>
-        <v>38491.199999999997</v>
+        <v>670491.87096774275</v>
       </c>
       <c r="AS65" s="2"/>
     </row>
@@ -59107,7 +59107,7 @@
         <v>118</v>
       </c>
       <c r="B66" s="12"/>
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="32" t="s">
         <v>119</v>
       </c>
       <c r="D66" s="6"/>
@@ -59151,7 +59151,7 @@
       <c r="AN66" s="12"/>
       <c r="AO66" s="12"/>
       <c r="AP66" s="12"/>
-      <c r="AQ66" s="35"/>
+      <c r="AQ66" s="31"/>
       <c r="AR66" s="12"/>
     </row>
     <row r="67" spans="1:45" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -59159,14 +59159,14 @@
         <v>121</v>
       </c>
       <c r="B67" s="12"/>
-      <c r="C67" s="35">
+      <c r="C67" s="31">
         <v>17.419354838709701</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D67" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
       <c r="G67" s="10" t="s">
         <v>122</v>
       </c>
@@ -59205,18 +59205,18 @@
       <c r="AN67" s="12"/>
       <c r="AO67" s="12"/>
       <c r="AP67" s="12"/>
-      <c r="AQ67" s="35"/>
+      <c r="AQ67" s="31"/>
       <c r="AR67" s="12"/>
     </row>
     <row r="68" spans="1:45" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="24" t="s">
+      <c r="C68" s="31"/>
+      <c r="D68" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="57"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
@@ -59253,12 +59253,12 @@
       <c r="AN68" s="12"/>
       <c r="AO68" s="12"/>
       <c r="AP68" s="12"/>
-      <c r="AQ68" s="35"/>
+      <c r="AQ68" s="31"/>
       <c r="AR68" s="12"/>
     </row>
     <row r="69" spans="1:45" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
-      <c r="C69" s="35"/>
+      <c r="C69" s="31"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
@@ -59267,7 +59267,7 @@
     </row>
     <row r="76" spans="1:45" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="8"/>
-      <c r="C76" s="35"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -59293,28 +59293,28 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
-      <c r="AC76" s="25"/>
-      <c r="AD76" s="26"/>
-      <c r="AE76" s="26"/>
-      <c r="AF76" s="26"/>
-      <c r="AG76" s="26"/>
-      <c r="AH76" s="27"/>
-      <c r="AI76" s="26"/>
-      <c r="AJ76" s="26"/>
-      <c r="AK76" s="26"/>
-      <c r="AL76" s="26"/>
-      <c r="AM76" s="26"/>
-      <c r="AN76" s="26"/>
-      <c r="AO76" s="26"/>
-      <c r="AP76" s="26"/>
-      <c r="AQ76" s="26"/>
+      <c r="AC76" s="64"/>
+      <c r="AD76" s="65"/>
+      <c r="AE76" s="65"/>
+      <c r="AF76" s="65"/>
+      <c r="AG76" s="65"/>
+      <c r="AH76" s="66"/>
+      <c r="AI76" s="65"/>
+      <c r="AJ76" s="65"/>
+      <c r="AK76" s="65"/>
+      <c r="AL76" s="65"/>
+      <c r="AM76" s="65"/>
+      <c r="AN76" s="65"/>
+      <c r="AO76" s="65"/>
+      <c r="AP76" s="65"/>
+      <c r="AQ76" s="65"/>
     </row>
     <row r="77" spans="1:45" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="23" t="s">
         <v>123</v>
       </c>
       <c r="B77" s="9"/>
-      <c r="C77" s="38"/>
+      <c r="C77" s="34"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
@@ -59326,15 +59326,17 @@
       <c r="AL77" s="14"/>
       <c r="AM77" s="14"/>
       <c r="AN77" s="14"/>
-      <c r="AO77" s="24" t="s">
+      <c r="AO77" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="AP77" s="24"/>
-      <c r="AQ77" s="24"/>
-      <c r="AR77" s="24"/>
+      <c r="AP77" s="57"/>
+      <c r="AQ77" s="57"/>
+      <c r="AR77" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="AO77:AR77"/>
+    <mergeCell ref="AC76:AQ76"/>
     <mergeCell ref="D67:F67"/>
     <mergeCell ref="D68:F68"/>
     <mergeCell ref="AO61:AQ61"/>
@@ -59342,8 +59344,6 @@
     <mergeCell ref="AO64:AQ64"/>
     <mergeCell ref="AN62:AQ62"/>
     <mergeCell ref="AO65:AQ65"/>
-    <mergeCell ref="AO77:AR77"/>
-    <mergeCell ref="AC76:AQ76"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1575" right="0.1575" top="0.39374999999999999" bottom="0.39374999999999999" header="0.3" footer="0.3"/>

--- a/assets/reservation_template.xlsx
+++ b/assets/reservation_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="12972"/>
   </bookViews>
   <sheets>
     <sheet name="09.03-08.04" sheetId="1" r:id="rId1"/>
@@ -4016,7 +4016,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -4184,13 +4184,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -4331,6 +4346,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4349,10 +4369,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -53922,8 +53940,8 @@
   </sheetPr>
   <dimension ref="A1:AS77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AW69" sqref="AW69"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AX24" sqref="AX24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53954,7 +53972,7 @@
     <col min="36" max="36" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="7.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="8.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.21875" style="3" customWidth="1"/>
     <col min="40" max="40" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="7.5546875" style="3" customWidth="1"/>
     <col min="42" max="42" width="7" style="3" bestFit="1" customWidth="1"/>
@@ -58663,7 +58681,7 @@
         <v>0</v>
       </c>
       <c r="AJ59" s="49"/>
-      <c r="AK59" s="49"/>
+      <c r="AK59" s="67"/>
       <c r="AL59" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -58690,148 +58708,144 @@
       <c r="B60" s="31"/>
       <c r="C60" s="42"/>
       <c r="D60" s="15">
-        <f t="shared" ref="D60:AG60" si="4">COUNTA(C8:C59)</f>
-        <v>52</v>
+        <f>COUNTA(D8:D59)</f>
+        <v>17</v>
       </c>
       <c r="E60" s="15">
-        <f t="shared" si="4"/>
+        <f>COUNTA(E8:E59)</f>
         <v>17</v>
       </c>
       <c r="F60" s="15">
-        <f t="shared" si="4"/>
+        <f>COUNTA(F8:F59)</f>
         <v>17</v>
       </c>
       <c r="G60" s="15">
-        <f t="shared" si="4"/>
+        <f>COUNTA(G8:G59)</f>
         <v>17</v>
       </c>
       <c r="H60" s="15">
-        <f t="shared" si="4"/>
+        <f>COUNTA(H8:H59)</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="15">
+        <f>COUNTA(I8:I59)</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="15">
+        <f>COUNTA(J8:J59)</f>
         <v>17</v>
       </c>
-      <c r="I60" s="15">
-        <f t="shared" si="4"/>
+      <c r="K60" s="15">
+        <f>COUNTA(K8:K59)</f>
+        <v>17</v>
+      </c>
+      <c r="L60" s="15">
+        <f>COUNTA(L8:L59)</f>
+        <v>17</v>
+      </c>
+      <c r="M60" s="15">
+        <f>COUNTA(M8:M59)</f>
+        <v>17</v>
+      </c>
+      <c r="N60" s="15">
+        <f>COUNTA(N8:N59)</f>
+        <v>17</v>
+      </c>
+      <c r="O60" s="15">
+        <f>COUNTA(O8:O59)</f>
         <v>0</v>
       </c>
-      <c r="J60" s="15">
-        <f t="shared" si="4"/>
+      <c r="P60" s="15">
+        <f>COUNTA(P8:P59)</f>
         <v>0</v>
       </c>
-      <c r="K60" s="15">
-        <f t="shared" si="4"/>
+      <c r="Q60" s="15">
+        <f>COUNTA(Q8:Q59)</f>
         <v>17</v>
       </c>
-      <c r="L60" s="15">
-        <f t="shared" si="4"/>
+      <c r="R60" s="15">
+        <f>COUNTA(R8:R59)</f>
         <v>17</v>
       </c>
-      <c r="M60" s="15">
-        <f t="shared" si="4"/>
+      <c r="S60" s="15">
+        <f>COUNTA(S8:S59)</f>
         <v>17</v>
       </c>
-      <c r="N60" s="15">
-        <f t="shared" si="4"/>
+      <c r="T60" s="15">
+        <f>COUNTA(T8:T59)</f>
         <v>17</v>
       </c>
-      <c r="O60" s="15">
-        <f t="shared" si="4"/>
+      <c r="U60" s="15">
+        <f>COUNTA(U8:U59)</f>
         <v>17</v>
       </c>
-      <c r="P60" s="15">
-        <f t="shared" si="4"/>
+      <c r="V60" s="15">
+        <f>COUNTA(V8:V59)</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="15">
-        <f t="shared" si="4"/>
+      <c r="W60" s="15">
+        <f>COUNTA(W8:W59)</f>
         <v>0</v>
       </c>
-      <c r="R60" s="15">
-        <f t="shared" si="4"/>
+      <c r="X60" s="15">
+        <f>COUNTA(X8:X59)</f>
         <v>17</v>
       </c>
-      <c r="S60" s="15">
-        <f t="shared" si="4"/>
+      <c r="Y60" s="15">
+        <f>COUNTA(Y8:Y59)</f>
         <v>17</v>
       </c>
-      <c r="T60" s="15">
-        <f t="shared" si="4"/>
+      <c r="Z60" s="15">
+        <f>COUNTA(Z8:Z59)</f>
         <v>17</v>
       </c>
-      <c r="U60" s="15">
-        <f t="shared" si="4"/>
+      <c r="AA60" s="15">
+        <f>COUNTA(AA8:AA59)</f>
         <v>17</v>
       </c>
-      <c r="V60" s="15">
-        <f t="shared" si="4"/>
+      <c r="AB60" s="15">
+        <f>COUNTA(AB8:AB59)</f>
         <v>17</v>
       </c>
-      <c r="W60" s="15">
-        <f t="shared" si="4"/>
+      <c r="AC60" s="15">
+        <f>COUNTA(AC8:AC59)</f>
         <v>0</v>
       </c>
-      <c r="X60" s="15">
-        <f t="shared" si="4"/>
+      <c r="AD60" s="15">
+        <f>COUNTA(AD8:AD59)</f>
         <v>0</v>
       </c>
-      <c r="Y60" s="15">
-        <f t="shared" si="4"/>
+      <c r="AE60" s="15">
+        <f>COUNTA(AE8:AE59)</f>
         <v>17</v>
       </c>
-      <c r="Z60" s="15">
-        <f t="shared" si="4"/>
+      <c r="AF60" s="15">
+        <f>COUNTA(AF8:AF59)</f>
         <v>17</v>
       </c>
-      <c r="AA60" s="15">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="AB60" s="15">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="AC60" s="15">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="AD60" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE60" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF60" s="15">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
       <c r="AG60" s="15">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="AH60" s="15">
         <f>COUNTA(AG8:AG59)</f>
         <v>17</v>
       </c>
+      <c r="AH60" s="15">
+        <f>COUNTA(AH8:AH59)</f>
+        <v>0</v>
+      </c>
       <c r="AI60" s="15">
-        <f>COUNTA(D60:AH60)</f>
-        <v>31</v>
-      </c>
-      <c r="AJ60" s="15">
         <f>SUM(AI8:AI59)</f>
         <v>374</v>
       </c>
-      <c r="AK60" s="15">
+      <c r="AJ60" s="15">
         <f>SUM(AJ8:AJ59)</f>
         <v>0</v>
       </c>
       <c r="AL60" s="15">
-        <f t="shared" si="1"/>
-        <v>405</v>
+        <f>+SUM(AI60:AK60)</f>
+        <v>374</v>
       </c>
       <c r="AM60" s="49">
-        <f t="shared" si="2"/>
-        <v>540.00000000000068</v>
+        <f>SUM(AM8:AM59)</f>
+        <v>6514.8387096774304</v>
       </c>
       <c r="AN60" s="49"/>
       <c r="AO60" s="39"/>
@@ -58883,11 +58897,11 @@
       <c r="AL61" s="43"/>
       <c r="AM61" s="43"/>
       <c r="AN61" s="44"/>
-      <c r="AO61" s="58" t="s">
+      <c r="AO61" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="AP61" s="58"/>
-      <c r="AQ61" s="59"/>
+      <c r="AP61" s="61"/>
+      <c r="AQ61" s="62"/>
       <c r="AR61" s="54">
         <f>SUM(AR8:AR59)</f>
         <v>620825.80645161367</v>
@@ -58934,12 +58948,12 @@
       <c r="AK62" s="40"/>
       <c r="AL62" s="40"/>
       <c r="AM62" s="40"/>
-      <c r="AN62" s="60" t="s">
+      <c r="AN62" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="AO62" s="60"/>
-      <c r="AP62" s="60"/>
-      <c r="AQ62" s="62"/>
+      <c r="AO62" s="63"/>
+      <c r="AP62" s="63"/>
+      <c r="AQ62" s="65"/>
       <c r="AR62" s="25">
         <f>(AR61*10/100)</f>
         <v>62082.580645161361</v>
@@ -58986,12 +59000,12 @@
       <c r="AK63" s="40"/>
       <c r="AL63" s="40"/>
       <c r="AM63" s="40"/>
-      <c r="AN63" s="60" t="s">
+      <c r="AN63" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="AO63" s="61"/>
-      <c r="AP63" s="61"/>
-      <c r="AQ63" s="61"/>
+      <c r="AO63" s="64"/>
+      <c r="AP63" s="64"/>
+      <c r="AQ63" s="64"/>
       <c r="AR63" s="55">
         <f>(AR61-AR62)</f>
         <v>558743.22580645233</v>
@@ -59039,11 +59053,11 @@
       <c r="AL64" s="40"/>
       <c r="AM64" s="40"/>
       <c r="AN64" s="41"/>
-      <c r="AO64" s="60" t="s">
+      <c r="AO64" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="AP64" s="61"/>
-      <c r="AQ64" s="61"/>
+      <c r="AP64" s="64"/>
+      <c r="AQ64" s="64"/>
       <c r="AR64" s="55">
         <f>(AR63*20/100)</f>
         <v>111748.64516129046</v>
@@ -59091,11 +59105,11 @@
       <c r="AL65" s="45"/>
       <c r="AM65" s="45"/>
       <c r="AN65" s="46"/>
-      <c r="AO65" s="63" t="s">
+      <c r="AO65" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="AP65" s="63"/>
-      <c r="AQ65" s="63"/>
+      <c r="AP65" s="66"/>
+      <c r="AQ65" s="66"/>
       <c r="AR65" s="56">
         <f>SUM(AR63:AR64)</f>
         <v>670491.87096774275</v>
@@ -59293,21 +59307,21 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
-      <c r="AC76" s="64"/>
-      <c r="AD76" s="65"/>
-      <c r="AE76" s="65"/>
-      <c r="AF76" s="65"/>
-      <c r="AG76" s="65"/>
-      <c r="AH76" s="66"/>
-      <c r="AI76" s="65"/>
-      <c r="AJ76" s="65"/>
-      <c r="AK76" s="65"/>
-      <c r="AL76" s="65"/>
-      <c r="AM76" s="65"/>
-      <c r="AN76" s="65"/>
-      <c r="AO76" s="65"/>
-      <c r="AP76" s="65"/>
-      <c r="AQ76" s="65"/>
+      <c r="AC76" s="58"/>
+      <c r="AD76" s="59"/>
+      <c r="AE76" s="59"/>
+      <c r="AF76" s="59"/>
+      <c r="AG76" s="59"/>
+      <c r="AH76" s="60"/>
+      <c r="AI76" s="59"/>
+      <c r="AJ76" s="59"/>
+      <c r="AK76" s="59"/>
+      <c r="AL76" s="59"/>
+      <c r="AM76" s="59"/>
+      <c r="AN76" s="59"/>
+      <c r="AO76" s="59"/>
+      <c r="AP76" s="59"/>
+      <c r="AQ76" s="59"/>
     </row>
     <row r="77" spans="1:45" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="23" t="s">

--- a/assets/reservation_template.xlsx
+++ b/assets/reservation_template.xlsx
@@ -4205,7 +4205,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -4343,6 +4343,9 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4369,7 +4372,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -53941,7 +53944,7 @@
   <dimension ref="A1:AS77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AX24" sqref="AX24"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54623,11 +54626,11 @@
       <c r="AJ9" s="39"/>
       <c r="AK9" s="39"/>
       <c r="AL9" s="25">
-        <f t="shared" ref="AL9:AL60" si="1">+SUM(AI9:AK9)</f>
+        <f t="shared" ref="AL9:AL59" si="1">+SUM(AI9:AK9)</f>
         <v>22</v>
       </c>
       <c r="AM9" s="39">
-        <f t="shared" ref="AM9:AM60" si="2">+AI9*$C$67</f>
+        <f t="shared" ref="AM9:AM59" si="2">+AI9*$C$67</f>
         <v>383.22580645161344</v>
       </c>
       <c r="AN9" s="39"/>
@@ -55764,90 +55767,90 @@
       </c>
     </row>
     <row r="20" spans="1:44" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="68">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="68">
         <v>2</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19" t="s">
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="M20" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="N20" s="19" t="s">
+      <c r="N20" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19" t="s">
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="R20" s="19" t="s">
+      <c r="R20" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="S20" s="19" t="s">
+      <c r="S20" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="T20" s="19" t="s">
+      <c r="T20" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="U20" s="19" t="s">
+      <c r="U20" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19" t="s">
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="Y20" s="19" t="s">
+      <c r="Y20" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="Z20" s="19" t="s">
+      <c r="Z20" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="AA20" s="19" t="s">
+      <c r="AA20" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="AB20" s="19" t="s">
+      <c r="AB20" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19" t="s">
+      <c r="AC20" s="68"/>
+      <c r="AD20" s="68"/>
+      <c r="AE20" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="AF20" s="19" t="s">
+      <c r="AF20" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="AG20" s="19" t="s">
+      <c r="AG20" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="AH20" s="19"/>
+      <c r="AH20" s="68"/>
       <c r="AI20" s="25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -58681,7 +58684,7 @@
         <v>0</v>
       </c>
       <c r="AJ59" s="49"/>
-      <c r="AK59" s="67"/>
+      <c r="AK59" s="57"/>
       <c r="AL59" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -58708,127 +58711,127 @@
       <c r="B60" s="31"/>
       <c r="C60" s="42"/>
       <c r="D60" s="15">
-        <f>COUNTA(D8:D59)</f>
+        <f t="shared" ref="D60:AH60" si="4">COUNTA(D8:D59)</f>
         <v>17</v>
       </c>
       <c r="E60" s="15">
-        <f>COUNTA(E8:E59)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="F60" s="15">
-        <f>COUNTA(F8:F59)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="G60" s="15">
-        <f>COUNTA(G8:G59)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="H60" s="15">
-        <f>COUNTA(H8:H59)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I60" s="15">
-        <f>COUNTA(I8:I59)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J60" s="15">
-        <f>COUNTA(J8:J59)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="K60" s="15">
-        <f>COUNTA(K8:K59)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="L60" s="15">
-        <f>COUNTA(L8:L59)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="M60" s="15">
-        <f>COUNTA(M8:M59)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="N60" s="15">
-        <f>COUNTA(N8:N59)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="O60" s="15">
-        <f>COUNTA(O8:O59)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P60" s="15">
-        <f>COUNTA(P8:P59)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q60" s="15">
-        <f>COUNTA(Q8:Q59)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="R60" s="15">
-        <f>COUNTA(R8:R59)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="S60" s="15">
-        <f>COUNTA(S8:S59)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="T60" s="15">
-        <f>COUNTA(T8:T59)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="U60" s="15">
-        <f>COUNTA(U8:U59)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="V60" s="15">
-        <f>COUNTA(V8:V59)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W60" s="15">
-        <f>COUNTA(W8:W59)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X60" s="15">
-        <f>COUNTA(X8:X59)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="Y60" s="15">
-        <f>COUNTA(Y8:Y59)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="Z60" s="15">
-        <f>COUNTA(Z8:Z59)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="AA60" s="15">
-        <f>COUNTA(AA8:AA59)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="AB60" s="15">
-        <f>COUNTA(AB8:AB59)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="AC60" s="15">
-        <f>COUNTA(AC8:AC59)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD60" s="15">
-        <f>COUNTA(AD8:AD59)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE60" s="15">
-        <f>COUNTA(AE8:AE59)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="AF60" s="15">
-        <f>COUNTA(AF8:AF59)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="AG60" s="15">
-        <f>COUNTA(AG8:AG59)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="AH60" s="15">
-        <f>COUNTA(AH8:AH59)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI60" s="15">
@@ -58897,11 +58900,11 @@
       <c r="AL61" s="43"/>
       <c r="AM61" s="43"/>
       <c r="AN61" s="44"/>
-      <c r="AO61" s="61" t="s">
+      <c r="AO61" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="AP61" s="61"/>
-      <c r="AQ61" s="62"/>
+      <c r="AP61" s="62"/>
+      <c r="AQ61" s="63"/>
       <c r="AR61" s="54">
         <f>SUM(AR8:AR59)</f>
         <v>620825.80645161367</v>
@@ -58948,12 +58951,12 @@
       <c r="AK62" s="40"/>
       <c r="AL62" s="40"/>
       <c r="AM62" s="40"/>
-      <c r="AN62" s="63" t="s">
+      <c r="AN62" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="AO62" s="63"/>
-      <c r="AP62" s="63"/>
-      <c r="AQ62" s="65"/>
+      <c r="AO62" s="64"/>
+      <c r="AP62" s="64"/>
+      <c r="AQ62" s="66"/>
       <c r="AR62" s="25">
         <f>(AR61*10/100)</f>
         <v>62082.580645161361</v>
@@ -59000,12 +59003,12 @@
       <c r="AK63" s="40"/>
       <c r="AL63" s="40"/>
       <c r="AM63" s="40"/>
-      <c r="AN63" s="63" t="s">
+      <c r="AN63" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="AO63" s="64"/>
-      <c r="AP63" s="64"/>
-      <c r="AQ63" s="64"/>
+      <c r="AO63" s="65"/>
+      <c r="AP63" s="65"/>
+      <c r="AQ63" s="65"/>
       <c r="AR63" s="55">
         <f>(AR61-AR62)</f>
         <v>558743.22580645233</v>
@@ -59053,11 +59056,11 @@
       <c r="AL64" s="40"/>
       <c r="AM64" s="40"/>
       <c r="AN64" s="41"/>
-      <c r="AO64" s="63" t="s">
+      <c r="AO64" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="AP64" s="64"/>
-      <c r="AQ64" s="64"/>
+      <c r="AP64" s="65"/>
+      <c r="AQ64" s="65"/>
       <c r="AR64" s="55">
         <f>(AR63*20/100)</f>
         <v>111748.64516129046</v>
@@ -59105,11 +59108,11 @@
       <c r="AL65" s="45"/>
       <c r="AM65" s="45"/>
       <c r="AN65" s="46"/>
-      <c r="AO65" s="66" t="s">
+      <c r="AO65" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="AP65" s="66"/>
-      <c r="AQ65" s="66"/>
+      <c r="AP65" s="67"/>
+      <c r="AQ65" s="67"/>
       <c r="AR65" s="56">
         <f>SUM(AR63:AR64)</f>
         <v>670491.87096774275</v>
@@ -59176,11 +59179,11 @@
       <c r="C67" s="31">
         <v>17.419354838709701</v>
       </c>
-      <c r="D67" s="57" t="s">
+      <c r="D67" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="E67" s="57"/>
-      <c r="F67" s="57"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
       <c r="G67" s="10" t="s">
         <v>122</v>
       </c>
@@ -59226,11 +59229,11 @@
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="31"/>
-      <c r="D68" s="57" t="s">
+      <c r="D68" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="E68" s="57"/>
-      <c r="F68" s="57"/>
+      <c r="E68" s="58"/>
+      <c r="F68" s="58"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
@@ -59307,21 +59310,21 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
-      <c r="AC76" s="58"/>
-      <c r="AD76" s="59"/>
-      <c r="AE76" s="59"/>
-      <c r="AF76" s="59"/>
-      <c r="AG76" s="59"/>
-      <c r="AH76" s="60"/>
-      <c r="AI76" s="59"/>
-      <c r="AJ76" s="59"/>
-      <c r="AK76" s="59"/>
-      <c r="AL76" s="59"/>
-      <c r="AM76" s="59"/>
-      <c r="AN76" s="59"/>
-      <c r="AO76" s="59"/>
-      <c r="AP76" s="59"/>
-      <c r="AQ76" s="59"/>
+      <c r="AC76" s="59"/>
+      <c r="AD76" s="60"/>
+      <c r="AE76" s="60"/>
+      <c r="AF76" s="60"/>
+      <c r="AG76" s="60"/>
+      <c r="AH76" s="61"/>
+      <c r="AI76" s="60"/>
+      <c r="AJ76" s="60"/>
+      <c r="AK76" s="60"/>
+      <c r="AL76" s="60"/>
+      <c r="AM76" s="60"/>
+      <c r="AN76" s="60"/>
+      <c r="AO76" s="60"/>
+      <c r="AP76" s="60"/>
+      <c r="AQ76" s="60"/>
     </row>
     <row r="77" spans="1:45" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="23" t="s">
@@ -59340,12 +59343,12 @@
       <c r="AL77" s="14"/>
       <c r="AM77" s="14"/>
       <c r="AN77" s="14"/>
-      <c r="AO77" s="57" t="s">
+      <c r="AO77" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="AP77" s="57"/>
-      <c r="AQ77" s="57"/>
-      <c r="AR77" s="57"/>
+      <c r="AP77" s="58"/>
+      <c r="AQ77" s="58"/>
+      <c r="AR77" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="9">
